--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\Pilot_Datenharmonisierung\DPEs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2444BF4-B900-431D-812F-073905862DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C6673-993B-40BA-833E-67B1654FD5E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="320">
   <si>
     <t>Index</t>
   </si>
@@ -75,25 +64,6 @@
   </si>
   <si>
     <t>KORA _S3_P2</t>
-  </si>
-  <si>
-    <t>col_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-id_creation</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <charset val="1"/>
-      </rPr>
-      <t> (mandatory)</t>
-    </r>
   </si>
   <si>
     <t>complete</t>
@@ -1035,12 +1005,22 @@
   <si>
     <t>DV850 (tea)</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+id_creation</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id_creation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,13 +1110,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Menlo"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1164,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1230,18 +1203,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1521,13 +1495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
@@ -1535,7 +1510,7 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1571,3017 +1546,3017 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="29">
+    <row r="2" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:12" ht="15">
+      <c r="E2" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="30.75">
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="30.75">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>23</v>
       </c>
       <c r="B23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="28" customFormat="1" ht="45.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>28</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="I28" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" ht="30.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>29</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="I29" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="28" customFormat="1" ht="30.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>30</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="I30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>31</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="15">
-        <v>31</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>32</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>33</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>34</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>35</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>37</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>40</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="I44" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I45" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>46</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="I46" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="28" customFormat="1" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>48</v>
       </c>
       <c r="B48" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="I48" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I49" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="28" customFormat="1" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>50</v>
       </c>
       <c r="B50" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>155</v>
-      </c>
       <c r="F50" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>54</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="2"/>
       <c r="I60" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="F77" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C82" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C83" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="F83" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C88" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C93" t="s">
-        <v>36</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="F93" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="G93" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="121.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="G94" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45.75">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C95" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="F95" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F95" s="10" t="s">
+      <c r="I95" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="J95" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="F96" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E96" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>284</v>
-      </c>
       <c r="I96" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="45.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E97" t="s">
         <v>285</v>
       </c>
-      <c r="C97" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="F97" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E97" t="s">
-        <v>287</v>
-      </c>
-      <c r="F97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G97" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="J97" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="259.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C99" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="F99" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J99" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="F100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="I100" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="396.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C101" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="F101" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E101" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101" s="10" t="s">
+      <c r="I101" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G101" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="J101" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="106.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C102" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="F102" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G102" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E102" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F102" s="6" t="s">
+      <c r="I102" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G102" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J102" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="106.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C103" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="F103" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F103" s="10" t="s">
+      <c r="I103" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G103" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="J103" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="30.75">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E104" t="s">
         <v>311</v>
       </c>
-      <c r="C104" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="F104" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G104" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E104" t="s">
-        <v>313</v>
-      </c>
-      <c r="F104" s="10" t="s">
+      <c r="I104" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G104" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="J104" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C105" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="F105" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E105" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>318</v>
-      </c>
       <c r="I105" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4590,6 +4565,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4830,15 +4814,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4852,13 +4827,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94761517-FE09-4464-B96F-D998528E68DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94761517-FE09-4464-B96F-D998528E68DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\Pilot_Datenharmonisierung\DPEs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30ECA27-1AC6-4600-909A-2CD0C162D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4DF40-0F0C-4B8B-899E-209FD5E69316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1006,12 +995,6 @@
     <t>Intake of processed or preserved meat [g/d]</t>
   </si>
   <si>
-    <t>DV131, DV141, DV145, DV147, DV150, DV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV131 (all kinds of minced meat) + DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
-  </si>
-  <si>
     <t>COFFEE_130301</t>
   </si>
   <si>
@@ -1034,6 +1017,12 @@
   </si>
   <si>
     <t>DV850 (tea)</t>
+  </si>
+  <si>
+    <t>DV141, DV145, DV147, DV150, DV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
   </si>
 </sst>
 </file>
@@ -1513,11 +1502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="3" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -1566,7 +1555,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="30.75">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1706,7 +1695,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="30.75">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -1776,7 +1765,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="30.75">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1809,7 +1798,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="30.75">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1842,7 +1831,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="30.75">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1879,7 +1868,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="30.75">
+    <row r="11" spans="1:13" ht="30">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1916,7 +1905,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="30.75">
+    <row r="12" spans="1:13" ht="30">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1951,7 +1940,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="30.75">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1986,7 +1975,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="30.75">
+    <row r="14" spans="1:13" ht="45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2054,7 +2043,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="30.75">
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2089,7 +2078,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="30.75">
+    <row r="17" spans="1:13" ht="30">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2382,7 +2371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="26" customFormat="1" ht="30.75">
+    <row r="26" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -2442,7 +2431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="26" customFormat="1" ht="45.75">
+    <row r="28" spans="1:13" s="26" customFormat="1" ht="45">
       <c r="A28" s="23">
         <v>27</v>
       </c>
@@ -2477,7 +2466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="26" customFormat="1" ht="30.75">
+    <row r="29" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -2512,7 +2501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="26" customFormat="1" ht="30.75">
+    <row r="30" spans="1:13" s="26" customFormat="1" ht="30">
       <c r="A30" s="23">
         <v>29</v>
       </c>
@@ -2733,7 +2722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30.75">
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -2797,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30.75">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -2890,7 +2879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30.75">
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2921,7 +2910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30.75">
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2952,7 +2941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30.75">
+    <row r="44" spans="1:11" ht="30">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2987,7 +2976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30.75">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3057,7 +3046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3092,7 +3081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="26" customFormat="1" ht="45.75">
+    <row r="48" spans="1:11" s="26" customFormat="1" ht="45">
       <c r="A48" s="23">
         <v>47</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="30.75">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3162,7 +3151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="26" customFormat="1" ht="30.75">
+    <row r="50" spans="1:11" s="26" customFormat="1" ht="30">
       <c r="A50" s="23">
         <v>49</v>
       </c>
@@ -3197,7 +3186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30.75">
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3232,7 +3221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30.75">
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3263,7 +3252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30.75">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -3294,7 +3283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30.75">
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3325,7 +3314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30.75">
+    <row r="55" spans="1:11" ht="30">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3356,7 +3345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30.75">
+    <row r="56" spans="1:11" ht="30">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3389,7 +3378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30.75">
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3511,7 +3500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30.75">
+    <row r="61" spans="1:11" ht="30">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3577,7 +3566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30.75">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3610,7 +3599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30.75">
+    <row r="64" spans="1:11" ht="30">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3729,7 +3718,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45.75">
+    <row r="68" spans="1:11" ht="45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3756,7 +3745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="45.75">
+    <row r="69" spans="1:11" ht="45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4513,7 +4502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="121.5">
+    <row r="94" spans="1:11" ht="120">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4546,7 +4535,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="45.75">
+    <row r="95" spans="1:11" ht="45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4578,7 +4567,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30.75">
+    <row r="96" spans="1:11" ht="45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4610,7 +4599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="45.75">
+    <row r="97" spans="1:11" ht="45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4642,7 +4631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="45.75">
+    <row r="98" spans="1:11" ht="45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4668,7 +4657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="259.5">
+    <row r="99" spans="1:11" ht="255">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4732,7 +4721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="396.75">
+    <row r="101" spans="1:11" ht="390">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4764,7 +4753,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="106.5">
+    <row r="102" spans="1:11" ht="105">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4796,7 +4785,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="106.5">
+    <row r="103" spans="1:11" ht="90">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4813,13 +4802,13 @@
         <v>14</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>277</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>279</v>
@@ -4828,15 +4817,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30.75">
+    <row r="104" spans="1:11" ht="30">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D104" t="s">
         <v>41</v>
@@ -4845,13 +4834,13 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>277</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J104" s="10" t="s">
         <v>279</v>
@@ -4865,10 +4854,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D105" t="s">
         <v>41</v>
@@ -4877,13 +4866,13 @@
         <v>14</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J105" s="10" t="s">
         <v>279</v>
@@ -4902,18 +4891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5154,6 +5131,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5164,13 +5153,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94761517-FE09-4464-B96F-D998528E68DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94761517-FE09-4464-B96F-D998528E68DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2677A-A719-411A-81A7-CB99C7ACE084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511FDC75-A80D-4054-A905-A250E943BC2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -937,9 +937,6 @@
   </si>
   <si>
     <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV131 (all kinds of minced meat) + DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
   </si>
   <si>
     <t>COFFEE_130301</t>
@@ -1036,9 +1033,6 @@
 DV119; DV131</t>
   </si>
   <si>
-    <t>DV131; DV141; DV145; DV147; DV150; DV160</t>
-  </si>
-  <si>
     <t>DV841; DV845</t>
   </si>
   <si>
@@ -1090,13 +1084,19 @@
     <t>DV111 + DV112 + DV113 + DV115 + DV117 + DV119 + DV131</t>
   </si>
   <si>
-    <t xml:space="preserve">DV131 + DV141 + DV145 + DV147 + DV150 + DV160 </t>
-  </si>
-  <si>
     <t xml:space="preserve">DV841 + DV845 </t>
   </si>
   <si>
     <t xml:space="preserve">DV850 </t>
+  </si>
+  <si>
+    <t>DV141; DV145; DV147; DV150; DV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV141 + DV145 + DV147 + DV150 + DV160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
   </si>
 </sst>
 </file>
@@ -1656,27 +1656,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1713,12 +1713,12 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
@@ -1727,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>13</v>
@@ -1748,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>18</v>
@@ -1783,7 +1783,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>22</v>
@@ -1818,7 +1818,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>25</v>
@@ -1853,7 +1853,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1867,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>19</v>
@@ -1890,7 +1890,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -1925,7 +1925,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
@@ -1960,7 +1960,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
@@ -1995,7 +1995,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>40</v>
@@ -2032,7 +2032,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>44</v>
@@ -2069,7 +2069,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
@@ -2104,7 +2104,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>51</v>
@@ -2139,7 +2139,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
@@ -2174,7 +2174,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
@@ -2209,7 +2209,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
@@ -2244,7 +2244,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
@@ -2279,7 +2279,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
@@ -2312,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
@@ -2345,7 +2345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>66</v>
@@ -2378,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>69</v>
@@ -2411,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>72</v>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>75</v>
@@ -2477,7 +2477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>78</v>
@@ -2510,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>81</v>
@@ -2543,7 +2543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2557,10 +2557,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>19</v>
@@ -2578,7 +2578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2623,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>19</v>
@@ -2644,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2658,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>19</v>
@@ -2679,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2693,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>19</v>
@@ -2714,7 +2714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
@@ -2747,7 +2747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
@@ -2780,7 +2780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
@@ -2813,7 +2813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
@@ -2846,7 +2846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
@@ -2879,7 +2879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
@@ -2912,7 +2912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>114</v>
@@ -2978,7 +2978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
@@ -3011,7 +3011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
@@ -3044,7 +3044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
@@ -3077,7 +3077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
@@ -3110,7 +3110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
@@ -3143,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>127</v>
@@ -3178,7 +3178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>131</v>
@@ -3213,7 +3213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>135</v>
@@ -3248,7 +3248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>139</v>
@@ -3283,7 +3283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -3297,10 +3297,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>19</v>
@@ -3318,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>139</v>
@@ -3353,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -3367,10 +3367,10 @@
         <v>12</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>19</v>
@@ -3388,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>139</v>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
@@ -3456,7 +3456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>35</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
@@ -3489,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
@@ -3522,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
@@ -3555,7 +3555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>163</v>
@@ -3588,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>166</v>
@@ -3623,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
@@ -3654,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
@@ -3685,7 +3685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
@@ -3716,7 +3716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>176</v>
@@ -3749,7 +3749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>179</v>
@@ -3784,7 +3784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>183</v>
@@ -3817,7 +3817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>186</v>
@@ -3850,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>179</v>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>191</v>
@@ -3916,7 +3916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>35</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>194</v>
@@ -3951,7 +3951,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>35</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
@@ -3984,7 +3984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
@@ -4017,7 +4017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>35</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
@@ -4048,7 +4048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>207</v>
@@ -4081,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>35</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>210</v>
@@ -4114,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>35</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
@@ -4145,7 +4145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>35</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>215</v>
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>219</v>
@@ -4215,7 +4215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="39" t="s">
@@ -4246,7 +4246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>35</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>224</v>
@@ -4279,7 +4279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>35</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F78" s="33" t="s">
         <v>227</v>
@@ -4312,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>35</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>230</v>
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>233</v>
@@ -4378,7 +4378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>35</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>236</v>
@@ -4411,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>35</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>239</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>35</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>242</v>
@@ -4477,7 +4477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>35</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>245</v>
@@ -4510,7 +4510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>248</v>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>35</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>251</v>
@@ -4576,7 +4576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>35</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
@@ -4607,7 +4607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>35</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="16" t="s">
@@ -4638,7 +4638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>35</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F89" s="21" t="s">
         <v>258</v>
@@ -4671,7 +4671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>35</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>261</v>
@@ -4704,7 +4704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>35</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
@@ -4735,7 +4735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>91</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>35</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
@@ -4766,7 +4766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>35</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F93" s="16" t="s">
         <v>268</v>
@@ -4799,7 +4799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -4813,10 +4813,10 @@
         <v>35</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G94" s="24" t="s">
         <v>271</v>
@@ -4832,7 +4832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -4846,16 +4846,16 @@
         <v>35</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F95" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I95" s="41" t="s">
         <v>275</v>
@@ -4867,7 +4867,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -4881,16 +4881,16 @@
         <v>35</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H96" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I96" s="44" t="s">
         <v>280</v>
@@ -4902,7 +4902,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>35</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>283</v>
@@ -4937,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -4951,16 +4951,16 @@
         <v>35</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H98" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I98" s="44" t="s">
         <v>287</v>
@@ -4972,7 +4972,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>35</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="17" t="s">
@@ -5003,7 +5003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -5017,16 +5017,16 @@
         <v>35</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G100" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I100" s="26" t="s">
         <v>292</v>
@@ -5038,7 +5038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>35</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F101" s="28" t="s">
         <v>295</v>
@@ -5061,7 +5061,7 @@
         <v>19</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="24" t="s">
@@ -5071,7 +5071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -5085,19 +5085,19 @@
         <v>35</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J102" s="17" t="s">
         <v>276</v>
@@ -5106,7 +5106,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -5120,16 +5120,16 @@
         <v>35</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H103" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I103" s="21" t="s">
         <v>300</v>
@@ -5141,7 +5141,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -5155,19 +5155,19 @@
         <v>35</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G104" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="J104" s="24" t="s">
         <v>276</v>
@@ -5176,33 +5176,33 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>305</v>
-      </c>
       <c r="D105" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G105" s="24" t="s">
         <v>271</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J105" s="17" t="s">
         <v>276</v>
@@ -5211,33 +5211,33 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="D106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F106" s="16" t="s">
+      <c r="G106" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I106" s="16" t="s">
         <v>309</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>310</v>
       </c>
       <c r="J106" s="17" t="s">
         <v>276</v>
@@ -5246,7 +5246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="32"/>
     </row>
@@ -5257,6 +5257,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5497,28 +5518,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8576D60D-4962-4B49-B007-8245669FE05E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5535,23 +5554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511FDC75-A80D-4054-A905-A250E943BC2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D99698-7A90-43F6-BB7B-C3B1DE95BD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>N/A adult participants</t>
-  </si>
-  <si>
-    <t>BMI__SDS_FUP</t>
   </si>
   <si>
     <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t xml:space="preserve">DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
+  </si>
+  <si>
+    <t>BMI_SDS_FUP</t>
   </si>
 </sst>
 </file>
@@ -1656,9 +1656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
@@ -1727,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>13</v>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>18</v>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>22</v>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>25</v>
@@ -1867,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>19</v>
@@ -1904,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -1939,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
@@ -1974,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
@@ -2009,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>40</v>
@@ -2046,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>44</v>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
@@ -2118,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>51</v>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
@@ -2326,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
@@ -2359,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>66</v>
@@ -2392,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>69</v>
@@ -2425,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>72</v>
@@ -2458,7 +2458,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>75</v>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>78</v>
@@ -2524,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>81</v>
@@ -2557,10 +2557,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>19</v>
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
@@ -2623,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>19</v>
@@ -2658,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>19</v>
@@ -2693,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>19</v>
@@ -2728,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
@@ -2959,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>114</v>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
@@ -3025,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
@@ -3058,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
@@ -3091,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
@@ -3124,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>127</v>
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>131</v>
@@ -3227,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>135</v>
@@ -3262,7 +3262,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>139</v>
@@ -3297,10 +3297,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>19</v>
@@ -3332,7 +3332,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>139</v>
@@ -3367,10 +3367,10 @@
         <v>12</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>19</v>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>139</v>
@@ -3437,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
@@ -3470,7 +3470,7 @@
         <v>35</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
@@ -3503,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
@@ -3536,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>163</v>
@@ -3602,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>166</v>
@@ -3637,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
@@ -3668,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
@@ -3699,7 +3699,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>176</v>
@@ -3763,7 +3763,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>179</v>
@@ -3798,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>183</v>
@@ -3831,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>186</v>
@@ -3864,7 +3864,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>179</v>
@@ -3897,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>191</v>
@@ -3930,7 +3930,7 @@
         <v>35</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>194</v>
@@ -3965,7 +3965,7 @@
         <v>35</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
@@ -3989,16 +3989,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="D69" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
@@ -4022,16 +4022,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="D70" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
@@ -4053,19 +4053,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>19</v>
@@ -4086,19 +4086,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>210</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>19</v>
@@ -4119,16 +4119,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>212</v>
-      </c>
       <c r="D73" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
@@ -4150,28 +4150,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F74" s="34" t="s">
+      <c r="G74" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="J74" s="24" t="s">
         <v>14</v>
@@ -4185,20 +4185,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>219</v>
-      </c>
       <c r="G75" s="35" t="s">
         <v>19</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>19</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J75" s="24" t="s">
         <v>14</v>
@@ -4220,16 +4220,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" t="s">
         <v>220</v>
       </c>
-      <c r="C76" t="s">
-        <v>221</v>
-      </c>
       <c r="D76" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="39" t="s">
@@ -4251,19 +4251,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" s="38" t="s">
         <v>223</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>224</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>19</v>
@@ -4284,19 +4284,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>19</v>
@@ -4317,19 +4317,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>230</v>
       </c>
       <c r="G79" s="24" t="s">
         <v>19</v>
@@ -4350,19 +4350,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>19</v>
@@ -4383,19 +4383,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="G81" s="24" t="s">
         <v>19</v>
@@ -4416,19 +4416,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>19</v>
@@ -4449,19 +4449,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>19</v>
@@ -4482,19 +4482,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>19</v>
@@ -4515,19 +4515,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="G85" s="24" t="s">
         <v>19</v>
@@ -4548,19 +4548,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>19</v>
@@ -4581,16 +4581,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="D87" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
@@ -4612,16 +4612,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="D88" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="16" t="s">
@@ -4643,19 +4643,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="G89" s="24" t="s">
         <v>19</v>
@@ -4676,19 +4676,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F90" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="G90" s="24" t="s">
         <v>19</v>
@@ -4709,16 +4709,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="D91" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
@@ -4740,16 +4740,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="D92" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
@@ -4771,19 +4771,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="G93" s="24" t="s">
         <v>19</v>
@@ -4804,25 +4804,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G94" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="G94" s="24" t="s">
+      <c r="H94" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>272</v>
       </c>
       <c r="I94" s="24"/>
       <c r="J94" s="24" t="s">
@@ -4837,34 +4837,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="D95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="I95" s="41" t="s">
+      <c r="J95" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="K95" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="K95" s="24" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4872,34 +4872,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="D96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="I96" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="I96" s="44" t="s">
-        <v>280</v>
-      </c>
       <c r="J96" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K96" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4907,31 +4907,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="D97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F97" s="16" t="s">
+      <c r="G97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I97" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="G97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="I97" s="45" t="s">
-        <v>284</v>
-      </c>
       <c r="J97" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K97" s="17" t="s">
         <v>15</v>
@@ -4942,34 +4942,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="D98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="I98" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H98" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="I98" s="44" t="s">
-        <v>287</v>
-      </c>
       <c r="J98" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K98" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4977,16 +4977,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>289</v>
-      </c>
       <c r="D99" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="17" t="s">
@@ -5008,31 +5008,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="D100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="I100" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>292</v>
-      </c>
       <c r="J100" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K100" s="17" t="s">
         <v>85</v>
@@ -5043,29 +5043,29 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="D101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F101" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>295</v>
-      </c>
       <c r="G101" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K101" s="24" t="s">
         <v>15</v>
@@ -5076,34 +5076,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>297</v>
-      </c>
       <c r="D102" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J102" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K102" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5111,34 +5111,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="D103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I103" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>300</v>
-      </c>
       <c r="J103" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K103" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="K103" s="24" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5146,34 +5146,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>302</v>
-      </c>
       <c r="D104" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F104" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="G104" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H104" s="27" t="s">
+      <c r="I104" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="I104" s="27" t="s">
-        <v>340</v>
-      </c>
       <c r="J104" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K104" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="K104" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5181,34 +5181,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="D105" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="I105" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>305</v>
-      </c>
       <c r="J105" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="K105" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5216,31 +5216,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="D106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F106" s="16" t="s">
+      <c r="G106" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="I106" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="J106" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K106" s="17" t="s">
         <v>15</v>
@@ -5257,27 +5257,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5518,26 +5497,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8576D60D-4962-4B49-B007-8245669FE05E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5554,4 +5535,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D99698-7A90-43F6-BB7B-C3B1DE95BD50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BBC72B-D57B-4C6D-8598-7D738DC9922A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>Total sugar intake [g/d]</t>
-  </si>
-  <si>
-    <t>admd</t>
   </si>
   <si>
     <t>ADD_SUGARS</t>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t>BMI_SDS_FUP</t>
+  </si>
+  <si>
+    <t>dkmd</t>
   </si>
 </sst>
 </file>
@@ -1657,26 +1657,26 @@
   <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1713,12 +1713,12 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>11</v>
@@ -1727,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>13</v>
@@ -1748,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>18</v>
@@ -1783,7 +1783,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>22</v>
@@ -1818,7 +1818,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>25</v>
@@ -1853,7 +1853,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1867,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>19</v>
@@ -1890,7 +1890,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -1925,7 +1925,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
@@ -1960,7 +1960,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
@@ -1995,7 +1995,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>40</v>
@@ -2032,7 +2032,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>44</v>
@@ -2069,7 +2069,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
@@ -2104,7 +2104,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>51</v>
@@ -2139,7 +2139,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
@@ -2174,7 +2174,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
@@ -2209,7 +2209,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
@@ -2244,7 +2244,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
@@ -2279,7 +2279,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
@@ -2312,7 +2312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
@@ -2345,7 +2345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>66</v>
@@ -2378,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>69</v>
@@ -2411,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>72</v>
@@ -2444,7 +2444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>75</v>
@@ -2477,7 +2477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>78</v>
@@ -2510,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>81</v>
@@ -2543,7 +2543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2557,10 +2557,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>19</v>
@@ -2578,7 +2578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
@@ -2609,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2623,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>19</v>
@@ -2644,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2658,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>19</v>
@@ -2679,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2693,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>19</v>
@@ -2714,7 +2714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
@@ -2747,7 +2747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
@@ -2780,7 +2780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
@@ -2813,7 +2813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
@@ -2846,7 +2846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
@@ -2879,7 +2879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
@@ -2912,7 +2912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
@@ -2945,7 +2945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>114</v>
@@ -2978,7 +2978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
@@ -3011,7 +3011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
@@ -3044,7 +3044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
@@ -3077,7 +3077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
@@ -3110,7 +3110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
@@ -3143,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>127</v>
@@ -3178,7 +3178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>131</v>
@@ -3213,7 +3213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>135</v>
@@ -3248,7 +3248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>139</v>
@@ -3283,7 +3283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -3297,10 +3297,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>19</v>
@@ -3318,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>139</v>
@@ -3353,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -3367,10 +3367,10 @@
         <v>12</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>19</v>
@@ -3388,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>139</v>
@@ -3423,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
@@ -3456,7 +3456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>35</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
@@ -3489,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
@@ -3522,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
@@ -3555,7 +3555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>163</v>
@@ -3588,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>166</v>
@@ -3623,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
@@ -3654,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
@@ -3685,7 +3685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
@@ -3716,7 +3716,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>176</v>
@@ -3749,7 +3749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>179</v>
@@ -3784,7 +3784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>183</v>
@@ -3817,7 +3817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>186</v>
@@ -3850,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>179</v>
@@ -3883,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>35</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F66" s="31" t="s">
         <v>191</v>
@@ -3916,7 +3916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>35</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>194</v>
@@ -3951,7 +3951,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>35</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
@@ -3984,12 +3984,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>201</v>
@@ -3998,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
@@ -4017,7 +4017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>35</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
@@ -4048,7 +4048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>206</v>
@@ -4081,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>35</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>209</v>
@@ -4114,7 +4114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>35</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
@@ -4145,7 +4145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>35</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>214</v>
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>218</v>
@@ -4215,7 +4215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>35</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="39" t="s">
@@ -4246,7 +4246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>35</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>223</v>
@@ -4279,7 +4279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>35</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F78" s="33" t="s">
         <v>226</v>
@@ -4312,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>35</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>229</v>
@@ -4345,7 +4345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>232</v>
@@ -4378,7 +4378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>35</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>235</v>
@@ -4411,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>35</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F82" s="21" t="s">
         <v>238</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>35</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>241</v>
@@ -4477,7 +4477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>35</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F84" s="21" t="s">
         <v>244</v>
@@ -4510,7 +4510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>247</v>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -4557,10 +4557,10 @@
         <v>35</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>19</v>
@@ -4576,21 +4576,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="D87" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="16" t="s">
@@ -4607,21 +4607,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="D88" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="16" t="s">
@@ -4638,24 +4638,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F89" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>257</v>
       </c>
       <c r="G89" s="24" t="s">
         <v>19</v>
@@ -4671,24 +4671,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F90" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="G90" s="24" t="s">
         <v>19</v>
@@ -4704,21 +4704,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="D91" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
@@ -4735,21 +4735,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="D92" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16" t="s">
@@ -4766,24 +4766,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="G93" s="24" t="s">
         <v>19</v>
@@ -4799,30 +4799,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G94" s="24" t="s">
+      <c r="H94" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>271</v>
       </c>
       <c r="I94" s="24"/>
       <c r="J94" s="24" t="s">
@@ -4832,161 +4832,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="D95" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="I95" s="41" t="s">
+      <c r="J95" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="J95" s="24" t="s">
+      <c r="K95" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="K95" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="D96" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="I96" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="I96" s="44" t="s">
-        <v>279</v>
-      </c>
       <c r="J96" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K96" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K96" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="D97" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F97" s="16" t="s">
+      <c r="G97" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="I97" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="G97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="I97" s="45" t="s">
-        <v>283</v>
-      </c>
       <c r="J97" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K97" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="D98" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="I98" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H98" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="I98" s="44" t="s">
-        <v>286</v>
-      </c>
       <c r="J98" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K98" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K98" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>288</v>
-      </c>
       <c r="D99" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="17" t="s">
@@ -5003,250 +5003,250 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="D100" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="I100" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>291</v>
-      </c>
       <c r="J100" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K100" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="D101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F101" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>294</v>
-      </c>
       <c r="G101" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K101" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>296</v>
-      </c>
       <c r="D102" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F102" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I102" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J102" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K102" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K102" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="D103" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I103" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>299</v>
-      </c>
       <c r="J103" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K103" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="K103" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>301</v>
-      </c>
       <c r="D104" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F104" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="G104" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H104" s="27" t="s">
+      <c r="I104" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="I104" s="27" t="s">
-        <v>339</v>
-      </c>
       <c r="J104" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K104" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K104" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="D105" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I105" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>304</v>
-      </c>
       <c r="J105" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K105" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K105" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="D106" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F106" s="16" t="s">
+      <c r="G106" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>308</v>
-      </c>
       <c r="J106" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K106" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="32"/>
     </row>
@@ -5257,6 +5257,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5497,28 +5518,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8576D60D-4962-4B49-B007-8245669FE05E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5535,23 +5554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BBC72B-D57B-4C6D-8598-7D738DC9922A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DA761-3D34-4C00-B53A-688F4A545D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="345">
   <si>
     <t>index</t>
   </si>
@@ -60,12 +60,18 @@
     <t>Mlstr_harmo::status_detail</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Participant identification number</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
+    <t>KORA_S3_P2</t>
+  </si>
+  <si>
     <t>id_creation</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
     <t>Age at exposure measure</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
     <t>dtalteru</t>
   </si>
   <si>
@@ -111,6 +120,9 @@
     <t>Employment</t>
   </si>
   <si>
+    <t>dtemploy</t>
+  </si>
+  <si>
     <t>di16, di17, di28 --&gt; dtemploy</t>
   </si>
   <si>
@@ -132,9 +144,6 @@
     <t>Physical activity from questionnaire data</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>TOT_PA_AC</t>
   </si>
   <si>
@@ -279,6 +288,9 @@
     <t>History of cardiovascular disease</t>
   </si>
   <si>
+    <t>dtcvd</t>
+  </si>
+  <si>
     <t>combination prev_mi_16 and prev_apo_16</t>
   </si>
   <si>
@@ -297,6 +309,9 @@
     <t>First degree family history of premature CHD and stroke</t>
   </si>
   <si>
+    <t>dtmvcvd</t>
+  </si>
+  <si>
     <t>dtvinfa + dtminfa + dtvschl + dtmschl --&gt; dtmvcvd</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>First degree family history of T2D</t>
   </si>
   <si>
+    <t>dtmvdiab</t>
+  </si>
+  <si>
     <t>dtvdiab + dtmdiab --&gt; dtmvdiab</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>First degree family history of cancer</t>
   </si>
   <si>
+    <t>dtmvca</t>
+  </si>
+  <si>
     <t>dtvca + dtmca --&gt; dtmvca</t>
   </si>
   <si>
@@ -456,6 +477,9 @@
     <t>Cerebral infarction (ischaemic stroke) during follow-up</t>
   </si>
   <si>
+    <t>inz_apo_isc_16</t>
+  </si>
+  <si>
     <t>inz_apo_16 = 1 (apo_typ_ 16 = 1, 2)</t>
   </si>
   <si>
@@ -474,6 +498,9 @@
     <t>Haemorrhagic stroke during follow-up</t>
   </si>
   <si>
+    <t>inz_apo_haem_16</t>
+  </si>
+  <si>
     <t>inz_apo_16 = 1 (apo_typ_ 16 = 3, 4)</t>
   </si>
   <si>
@@ -630,6 +657,9 @@
     <t>N/A adult participants</t>
   </si>
   <si>
+    <t>BMI_SDS_FUP</t>
+  </si>
+  <si>
     <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
   </si>
   <si>
@@ -663,10 +693,16 @@
     <t>Hip circumference at follow-up</t>
   </si>
   <si>
+    <t>FMI_FUP</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up</t>
+  </si>
+  <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Fat mass index at follow-up</t>
+    <t>Fat mass index at baseline</t>
   </si>
   <si>
     <t>DTBFMI_K</t>
@@ -675,10 +711,16 @@
     <t>according to Kyle</t>
   </si>
   <si>
+    <t>BODY_FAT_FUP</t>
+  </si>
+  <si>
+    <t>Body fat at follow-up</t>
+  </si>
+  <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat at at follow-up</t>
+    <t>Body fat at baseline</t>
   </si>
   <si>
     <t>DTBFKG_K</t>
@@ -777,6 +819,9 @@
     <t>Total sugar intake [g/d]</t>
   </si>
   <si>
+    <t>dkmd</t>
+  </si>
+  <si>
     <t>ADD_SUGARS</t>
   </si>
   <si>
@@ -834,6 +879,9 @@
     <t>Sodium to potassium intake ratio [g/d]</t>
   </si>
   <si>
+    <t>dnatr; dkal</t>
+  </si>
+  <si>
     <t>operation</t>
   </si>
   <si>
@@ -846,6 +894,12 @@
     <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
   </si>
   <si>
+    <t>DV610; DV681; DV684; DV687; DV620; DV630; DV650; DV670</t>
+  </si>
+  <si>
+    <t>DV610 + DV681 + DV684 + DV687 + DV620 + DV630 + DV650 + DV670</t>
+  </si>
+  <si>
     <t>DV610 (sugar) + DV681 (honey) + DV684 (jam) + DV687 (other sweet spreads) + DV620 (cacao products) + DV630 (chocolate products) + DV650 (confectionary) + DV670 (all ice cream)</t>
   </si>
   <si>
@@ -861,6 +915,12 @@
     <t>Intake of cakes and fine bakery wares [g/d]</t>
   </si>
   <si>
+    <t>DV540; DV570</t>
+  </si>
+  <si>
+    <t>DV540 + DV570</t>
+  </si>
+  <si>
     <t>DV540 (fine bakery wares) + DV570 (long-life baked goods)</t>
   </si>
   <si>
@@ -882,6 +942,12 @@
     <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
   </si>
   <si>
+    <t>DV825; DV829</t>
+  </si>
+  <si>
+    <t>DV825 + DV829</t>
+  </si>
+  <si>
     <t>DV825 (caffeinated lemonade) + DV829 (other soft drinks)</t>
   </si>
   <si>
@@ -895,6 +961,18 @@
   </si>
   <si>
     <t>Vegetable intake [g/d]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV431; DV433; DV440;
+DV451; DV455; DV459; DV461; DV465;
+DV469; DV470; DV480; 
+DV499 </t>
+  </si>
+  <si>
+    <t>DV431 + DV433 + DV440 +
+DV451 + DV455 + DV459 + DV461 +  DV465 +
+DV469 + DV470 + DV480 + 
+DV499</t>
   </si>
   <si>
     <t>DV431 (cauliflower) + DV433 (other cabbage) + DV440 (leafy and stem vegetables) +
@@ -912,73 +990,40 @@
     <t xml:space="preserve">DV491 </t>
   </si>
   <si>
+    <t>DV491</t>
+  </si>
+  <si>
     <t>FRUITS_TOT_04</t>
   </si>
   <si>
     <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
-    <t>RED_MEAT_0701</t>
-  </si>
-  <si>
-    <t>Intake of red meat (mammals meat) [g/d]</t>
-  </si>
-  <si>
-    <t>DV111 (beef)+ DV112 (veal) + DV113 (pork meat) + DV115 (sheep or goat meat) + DV117 (game meat) + DV119 (other meat) + DV131 (minced meat)</t>
-  </si>
-  <si>
-    <t>PROCMEAT_0704</t>
-  </si>
-  <si>
-    <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t>COFFEE_130301</t>
-  </si>
-  <si>
-    <t>Coffee intake [g/d]</t>
-  </si>
-  <si>
-    <t>DV841 (roasted coffee) + DV845 (coffee extracts)</t>
-  </si>
-  <si>
-    <t>TEA_130302</t>
-  </si>
-  <si>
-    <t>Tea intake [g/d]</t>
-  </si>
-  <si>
-    <t>DV850</t>
-  </si>
-  <si>
-    <t>DV850 (tea)</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>D_ID</t>
-  </si>
-  <si>
-    <t>DTEMPLOY</t>
-  </si>
-  <si>
-    <t>DTCVD</t>
-  </si>
-  <si>
-    <t>DTMVCVD</t>
-  </si>
-  <si>
-    <t>DTMVDIAB</t>
-  </si>
-  <si>
-    <t>DTMVCA</t>
-  </si>
-  <si>
-    <t>INZ_APO_ISC_16</t>
-  </si>
-  <si>
-    <t>INZ_APO_HAEM_16</t>
+    <t>DV310; DV311; DV315; DV321; DV323;
+DV325; DV331; DV334; DV337; DV341;
+DV343; DV344; DV345; DV346; DV351;
+DV357; DV360; DV370; DV390</t>
+  </si>
+  <si>
+    <t>DV310 +
+DV311 +
+DV315 +
+DV321 +
+DV323 +
+DV325 +
+DV331 +
+DV334 +
+DV337 +
+DV341 +
+DV343 +
+DV344 +
+DV345 +
+DV346 +
+DV351 +
+DV357 +
+DV360 +
+DV370 +
+DV390</t>
   </si>
   <si>
     <t>DV310 (fruit without specification) +
@@ -1002,101 +1047,68 @@
 DV390 (other processed fruit)</t>
   </si>
   <si>
-    <t>DV610; DV681; DV684; DV687; DV620; DV630; DV650; DV670</t>
-  </si>
-  <si>
-    <t>DV540; DV570</t>
-  </si>
-  <si>
-    <t>DV825; DV829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV431; DV433; DV440;
-DV451; DV455; DV459; DV461; DV465;
-DV469; DV470; DV480; 
-DV499 </t>
-  </si>
-  <si>
-    <t>DV310; DV311; DV315; DV321; DV323;
-DV325; DV331; DV334; DV337; DV341;
-DV343; DV344; DV345; DV346; DV351;
-DV357; DV360; DV370; DV390</t>
+    <t>RED_MEAT_0701</t>
+  </si>
+  <si>
+    <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
     <t>DV111; DV112; DV113; DV115; DV117;
 DV119; DV131</t>
   </si>
   <si>
+    <t>DV111 + DV112 + DV113 + DV115 + DV117 + DV119 + DV131</t>
+  </si>
+  <si>
+    <t>DV111 (beef)+ DV112 (veal) + DV113 (pork meat) + DV115 (sheep or goat meat) + DV117 (game meat) + DV119 (other meat) + DV131 (minced meat)</t>
+  </si>
+  <si>
+    <t>PROCMEAT_0704</t>
+  </si>
+  <si>
+    <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
+    <t>DV141; DV145; DV147; DV150; DV160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV141 + DV145 + DV147 + DV150 + DV160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
+  </si>
+  <si>
+    <t>COFFEE_130301</t>
+  </si>
+  <si>
+    <t>Coffee intake [g/d]</t>
+  </si>
+  <si>
     <t>DV841; DV845</t>
   </si>
   <si>
-    <t>KORA_S3_P2</t>
-  </si>
-  <si>
-    <t>dnatr; dkal</t>
-  </si>
-  <si>
-    <t>DV610 + DV681 + DV684 + DV687 + DV620 + DV630 + DV650 + DV670</t>
-  </si>
-  <si>
-    <t>DV540 + DV570</t>
-  </si>
-  <si>
-    <t>DV825 + DV829</t>
-  </si>
-  <si>
-    <t>DV431 + DV433 + DV440 +
-DV451 + DV455 + DV459 + DV461 +  DV465 +
-DV469 + DV470 + DV480 + 
-DV499</t>
-  </si>
-  <si>
-    <t>DV491</t>
-  </si>
-  <si>
-    <t>DV310 +
-DV311 +
-DV315 +
-DV321 +
-DV323 +
-DV325 +
-DV331 +
-DV334 +
-DV337 +
-DV341 +
-DV343 +
-DV344 +
-DV345 +
-DV346 +
-DV351 +
-DV357 +
-DV360 +
-DV370 +
-DV390</t>
-  </si>
-  <si>
-    <t>DV111 + DV112 + DV113 + DV115 + DV117 + DV119 + DV131</t>
-  </si>
-  <si>
     <t xml:space="preserve">DV841 + DV845 </t>
   </si>
   <si>
+    <t>DV841 (roasted coffee) + DV845 (coffee extracts)</t>
+  </si>
+  <si>
+    <t>TEA_130302</t>
+  </si>
+  <si>
+    <t>Tea intake [g/d]</t>
+  </si>
+  <si>
+    <t>DV850</t>
+  </si>
+  <si>
     <t xml:space="preserve">DV850 </t>
   </si>
   <si>
-    <t>DV141; DV145; DV147; DV150; DV160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV141 + DV145 + DV147 + DV150 + DV160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV141 (sausage) + DV145 (ham) + DV147 (bacon) + DV150 (canned, frozen meat or meat products) + DV160 (other meat products) </t>
-  </si>
-  <si>
-    <t>BMI_SDS_FUP</t>
-  </si>
-  <si>
-    <t>dkmd</t>
+    <t>DV850 (tea)</t>
+  </si>
+  <si>
+    <t>d_id</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1361,22 +1373,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1654,14 +1657,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -1698,10 +1701,10 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -1718,34 +1721,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,32 +1756,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1788,32 +1791,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1823,32 +1826,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1858,34 +1861,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>310</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1895,32 +1898,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1930,32 +1933,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1965,32 +1968,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2000,34 +2003,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2037,34 +2040,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -2074,32 +2077,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2109,32 +2112,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2144,32 +2147,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2179,32 +2182,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2214,32 +2217,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2249,32 +2252,32 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2284,32 +2287,32 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2317,32 +2320,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2350,32 +2353,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,32 +2386,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,32 +2419,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,32 +2452,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2482,32 +2485,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2515,32 +2518,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -2548,34 +2551,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>311</v>
+        <v>14</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -2583,30 +2586,30 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2614,34 +2617,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>312</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -2649,34 +2652,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>313</v>
+        <v>14</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,34 +2687,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>314</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>102</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2719,32 +2722,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2752,32 +2755,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2785,32 +2788,32 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2818,32 +2821,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,32 +2854,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2884,32 +2887,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,32 +2920,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2950,32 +2953,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2983,32 +2986,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3016,32 +3019,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3049,32 +3052,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3082,32 +3085,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3115,32 +3118,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,34 +3151,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3183,34 +3186,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3218,34 +3221,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3253,34 +3256,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3288,34 +3291,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>315</v>
+        <v>14</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3323,34 +3326,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -3358,34 +3361,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>316</v>
+        <v>14</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3393,34 +3396,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3428,32 +3431,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3461,32 +3464,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3494,32 +3497,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3527,32 +3530,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,32 +3563,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,34 +3596,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3628,30 +3631,30 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3659,30 +3662,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3690,30 +3693,30 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3721,32 +3724,32 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3754,34 +3757,34 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3789,32 +3792,32 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3822,32 +3825,32 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3855,32 +3858,32 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C65" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="G65" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -3888,32 +3891,32 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3921,34 +3924,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3956,32 +3959,32 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3989,32 +3992,32 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,30 +4025,30 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4053,32 +4056,32 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4086,32 +4089,32 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" s="24"/>
       <c r="J72" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4119,230 +4122,222 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="J74" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+        <v>14</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
         <v>74</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>217</v>
+      <c r="B75" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>218</v>
+        <v>24</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" t="s">
-        <v>220</v>
+      <c r="B76" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="39" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I76" s="16"/>
+        <v>35</v>
+      </c>
       <c r="J76" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>232</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>227</v>
+      </c>
       <c r="J77" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>35</v>
+      <c r="B78" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F78" s="34"/>
+      <c r="G78" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4350,32 +4345,32 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>232</v>
+        <v>14</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I80" s="24"/>
       <c r="J80" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4383,98 +4378,98 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" s="24"/>
       <c r="J83" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4482,32 +4477,32 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I84" s="24"/>
       <c r="J84" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4515,96 +4510,98 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I85" s="24"/>
       <c r="J85" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I86" s="24"/>
       <c r="J86" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>35</v>
+        <v>260</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K87" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4612,30 +4609,32 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>35</v>
+        <v>263</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K88" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4643,96 +4642,94 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>35</v>
+        <v>266</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G89" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>35</v>
+        <v>268</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>35</v>
+        <v>270</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K91" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4740,30 +4737,32 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>35</v>
+        <v>273</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K92" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4771,484 +4770,546 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>35</v>
+        <v>276</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K93" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>35</v>
+        <v>278</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+        <v>14</v>
+      </c>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>272</v>
+        <v>279</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>318</v>
+        <v>14</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>273</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="24"/>
       <c r="J95" s="24" t="s">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>277</v>
+        <v>282</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F96" s="17" t="s">
-        <v>319</v>
+        <v>14</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="I96" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="J96" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K96" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="I97" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="J97" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="I98" s="44" t="s">
         <v>285</v>
       </c>
+      <c r="H98" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>298</v>
+      </c>
       <c r="J98" s="17" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F99" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="G99" s="17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I99" s="17"/>
+        <v>301</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>302</v>
+      </c>
       <c r="J99" s="17" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="K99" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>321</v>
+        <v>14</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="J100" s="24" t="s">
-        <v>274</v>
+        <v>285</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C101" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K101" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="I102" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="J102" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="I102" s="27" t="s">
+      <c r="K102" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <v>102</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="J102" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>323</v>
-      </c>
       <c r="G103" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>298</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I103" s="17"/>
       <c r="J103" s="24" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="J104" s="24" t="s">
-        <v>274</v>
+        <v>323</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F105" s="17" t="s">
-        <v>324</v>
+        <v>14</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H105" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="K105" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="17">
+        <v>105</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H106" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
+        <v>106</v>
+      </c>
+      <c r="B107" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="I105" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="J105" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K105" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
-        <v>105</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="16" t="s">
+      <c r="C107" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="I106" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="C107" s="32"/>
+      <c r="D107" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I107" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="J107" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K107" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17">
+        <v>107</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K108" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5257,6 +5318,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5266,15 +5336,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5519,17 +5580,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5537,8 +5587,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8576D60D-4962-4B49-B007-8245669FE05E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DA761-3D34-4C00-B53A-688F4A545D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F3E047-555C-4266-9F8E-C7A45D8DBB43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1379,7 +1379,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1660,26 +1660,26 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
@@ -2107,7 +2107,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>14</v>
@@ -2348,7 +2348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>46</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>48</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>50</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>51</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>53</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>54</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>55</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>56</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>57</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>58</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>60</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>61</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>62</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>63</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="24">
         <v>74</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="24">
         <v>76</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>91</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="17">
         <v>94</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>106</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="32"/>
     </row>
@@ -5318,27 +5318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5579,10 +5558,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5605,20 +5616,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F3E047-555C-4266-9F8E-C7A45D8DBB43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563B927-958B-4B2E-BCC8-FCA540C206F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="350">
   <si>
     <t>index</t>
   </si>
@@ -1110,12 +1110,27 @@
   <si>
     <t>d_id</t>
   </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>5 (7_d_FR_w)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,13 +1183,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1271,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1352,9 +1379,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1377,6 +1401,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1659,9 +1687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1900,7 @@
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -2562,7 +2590,7 @@
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="40" t="s">
         <v>87</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2628,7 +2656,7 @@
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="40" t="s">
         <v>94</v>
       </c>
       <c r="G28" s="14" t="s">
@@ -2663,7 +2691,7 @@
       <c r="E29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="40" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="14" t="s">
@@ -2698,7 +2726,7 @@
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="40" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -3302,7 +3330,7 @@
       <c r="E48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>150</v>
       </c>
       <c r="G48" s="14" t="s">
@@ -3372,7 +3400,7 @@
       <c r="E50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="41" t="s">
         <v>157</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -4133,7 +4161,7 @@
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="36"/>
+      <c r="F73" s="35"/>
       <c r="G73" s="16" t="s">
         <v>35</v>
       </c>
@@ -4193,10 +4221,10 @@
       <c r="E75" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="34" t="s">
+      <c r="F75" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="34" t="s">
         <v>21</v>
       </c>
       <c r="H75" s="24" t="s">
@@ -4257,10 +4285,10 @@
       <c r="E77" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G77" s="34" t="s">
         <v>21</v>
       </c>
       <c r="H77" s="24" t="s">
@@ -4280,7 +4308,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="36" t="s">
         <v>233</v>
       </c>
       <c r="C78" t="s">
@@ -4292,8 +4320,8 @@
       <c r="E78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="33"/>
+      <c r="G78" s="38" t="s">
         <v>35</v>
       </c>
       <c r="H78" s="16" t="s">
@@ -4323,10 +4351,10 @@
       <c r="E79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="38" t="s">
+      <c r="F79" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="34" t="s">
         <v>21</v>
       </c>
       <c r="H79" s="24" t="s">
@@ -4356,7 +4384,7 @@
       <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="32" t="s">
         <v>240</v>
       </c>
       <c r="G80" s="24" t="s">
@@ -5308,8 +5336,39 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="32"/>
+      <c r="A109" s="42">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J109" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="45" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5318,6 +5377,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5558,42 +5638,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5616,9 +5664,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563B927-958B-4B2E-BCC8-FCA540C206F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79430C4-17CB-42DB-9D2E-7D9D56EDCF21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>CONTRACEPTIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">Use of contraceptive pills or injections </t>
-  </si>
-  <si>
     <t>LIVE_BIRTHS</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>PREV_DIAB</t>
   </si>
   <si>
-    <t>History of diabetes (T2DM)</t>
-  </si>
-  <si>
     <t>prev_dm_16</t>
   </si>
   <si>
@@ -369,21 +363,12 @@
     <t>MELANOMA_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Skin cancer</t>
-  </si>
-  <si>
     <t>MAMMO_SCREEN</t>
   </si>
   <si>
-    <t>Screening, Mammography</t>
-  </si>
-  <si>
     <t>CERVICAL_SCREEN</t>
   </si>
   <si>
-    <t>Cervical screening, smear test</t>
-  </si>
-  <si>
     <t>MED_STAT</t>
   </si>
   <si>
@@ -567,9 +552,6 @@
     <t>TYPE_CANCER</t>
   </si>
   <si>
-    <t>Type of cancer</t>
-  </si>
-  <si>
     <t>AGE_CANCER</t>
   </si>
   <si>
@@ -624,18 +606,12 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>Body Mass index at baseline</t>
-  </si>
-  <si>
     <t>dtbmi</t>
   </si>
   <si>
     <t>BMI_FUP</t>
   </si>
   <si>
-    <t>Body Mass index at follow-up</t>
-  </si>
-  <si>
     <t>k4tbmi</t>
   </si>
   <si>
@@ -651,18 +627,12 @@
     <t>BMI_SDS</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at baseline (children studies)</t>
-  </si>
-  <si>
     <t>N/A adult participants</t>
   </si>
   <si>
     <t>BMI_SDS_FUP</t>
   </si>
   <si>
-    <t>Body Mass index Standard Deviation Score at follow-up (children studies)</t>
-  </si>
-  <si>
     <t>WAIST_FUP</t>
   </si>
   <si>
@@ -714,15 +684,9 @@
     <t>BODY_FAT_FUP</t>
   </si>
   <si>
-    <t>Body fat at follow-up</t>
-  </si>
-  <si>
     <t>BODY_FAT</t>
   </si>
   <si>
-    <t>Body fat at baseline</t>
-  </si>
-  <si>
     <t>DTBFKG_K</t>
   </si>
   <si>
@@ -861,9 +825,6 @@
     <t>GL</t>
   </si>
   <si>
-    <t xml:space="preserve">Daily glycaemic load </t>
-  </si>
-  <si>
     <t>SODIUM</t>
   </si>
   <si>
@@ -912,9 +873,6 @@
     <t>CAKES_12</t>
   </si>
   <si>
-    <t>Intake of cakes and fine bakery wares [g/d]</t>
-  </si>
-  <si>
     <t>DV540; DV570</t>
   </si>
   <si>
@@ -927,9 +885,6 @@
     <t>FRUITVEG_JUICE_1301</t>
   </si>
   <si>
-    <t>Intake of fruit and vegetable juices and nectars [g/d]</t>
-  </si>
-  <si>
     <t>DV810</t>
   </si>
   <si>
@@ -937,9 +892,6 @@
   </si>
   <si>
     <t>SOFTDRINKS_1302</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks (flavoured, no fruit) [g/d]</t>
   </si>
   <si>
     <t>DV825; DV829</t>
@@ -984,9 +936,6 @@
     <t>LEGUMES_TOT_03</t>
   </si>
   <si>
-    <t>Legumes intake [g/d]</t>
-  </si>
-  <si>
     <t xml:space="preserve">DV491 </t>
   </si>
   <si>
@@ -994,9 +943,6 @@
   </si>
   <si>
     <t>FRUITS_TOT_04</t>
-  </si>
-  <si>
-    <t>intake of any type of RPCs of fruit nature [g/d]</t>
   </si>
   <si>
     <t>DV310; DV311; DV315; DV321; DV323;
@@ -1124,6 +1070,60 @@
   </si>
   <si>
     <t>5 (7_d_FR_w)</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections</t>
+  </si>
+  <si>
+    <t>History of diabetes</t>
+  </si>
+  <si>
+    <t>Screening, skin cancer</t>
+  </si>
+  <si>
+    <t>Screening, mammography</t>
+  </si>
+  <si>
+    <t>Screening cervical, smear test</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18)</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
+  </si>
+  <si>
+    <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline</t>
+  </si>
+  <si>
+    <t>Daily glycaemic load</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
+    <t>Total legumes intake [g/d]</t>
+  </si>
+  <si>
+    <t>Total fruit intake [g/d]</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1761,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -2283,7 +2283,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>62</v>
+        <v>332</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
@@ -2315,10 +2315,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -2348,10 +2348,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>24</v>
@@ -2381,19 +2381,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>21</v>
@@ -2414,19 +2414,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>21</v>
@@ -2447,19 +2447,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>21</v>
@@ -2480,19 +2480,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>21</v>
@@ -2513,10 +2513,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -2525,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
@@ -2546,10 +2546,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -2558,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>21</v>
@@ -2579,10 +2579,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -2591,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>21</v>
@@ -2600,13 +2600,13 @@
         <v>21</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -2614,10 +2614,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -2645,10 +2645,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -2657,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>21</v>
@@ -2666,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>16</v>
@@ -2680,10 +2680,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -2692,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>21</v>
@@ -2701,7 +2701,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>16</v>
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -2727,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>21</v>
@@ -2736,7 +2736,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>16</v>
@@ -2750,10 +2750,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>13</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>35</v>
@@ -2783,10 +2783,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>13</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>35</v>
@@ -2816,10 +2816,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>35</v>
@@ -2838,7 +2838,7 @@
         <v>36</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>36</v>
@@ -2849,10 +2849,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>35</v>
@@ -2882,10 +2882,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>35</v>
@@ -2915,10 +2915,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>35</v>
@@ -2948,10 +2948,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>35</v>
@@ -2981,10 +2981,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -2993,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>21</v>
@@ -3014,10 +3014,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>35</v>
@@ -3047,10 +3047,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>35</v>
@@ -3080,10 +3080,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>24</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>35</v>
@@ -3113,10 +3113,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>35</v>
@@ -3146,10 +3146,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>24</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>35</v>
@@ -3179,10 +3179,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>13</v>
@@ -3191,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>21</v>
@@ -3200,7 +3200,7 @@
         <v>21</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>16</v>
@@ -3214,10 +3214,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>24</v>
@@ -3226,7 +3226,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>21</v>
@@ -3235,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>16</v>
@@ -3249,10 +3249,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -3261,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>21</v>
@@ -3270,7 +3270,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>16</v>
@@ -3284,10 +3284,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>24</v>
@@ -3296,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>21</v>
@@ -3305,7 +3305,7 @@
         <v>21</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>16</v>
@@ -3319,10 +3319,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>13</v>
@@ -3331,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>21</v>
@@ -3340,7 +3340,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>16</v>
@@ -3354,10 +3354,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>24</v>
@@ -3366,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>21</v>
@@ -3375,7 +3375,7 @@
         <v>21</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>16</v>
@@ -3389,10 +3389,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>13</v>
@@ -3401,7 +3401,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>21</v>
@@ -3410,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>16</v>
@@ -3424,10 +3424,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>24</v>
@@ -3436,7 +3436,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>21</v>
@@ -3445,7 +3445,7 @@
         <v>21</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>16</v>
@@ -3459,10 +3459,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>13</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>35</v>
@@ -3492,10 +3492,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>24</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>35</v>
@@ -3525,10 +3525,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>13</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>35</v>
@@ -3558,10 +3558,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>24</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>35</v>
@@ -3591,10 +3591,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>13</v>
@@ -3603,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>21</v>
@@ -3624,10 +3624,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>24</v>
@@ -3636,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>21</v>
@@ -3645,7 +3645,7 @@
         <v>21</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>16</v>
@@ -3659,10 +3659,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>13</v>
@@ -3690,10 +3690,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>13</v>
@@ -3721,10 +3721,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>24</v>
@@ -3752,10 +3752,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>13</v>
@@ -3764,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>21</v>
@@ -3785,10 +3785,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>24</v>
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>21</v>
@@ -3806,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>16</v>
@@ -3820,10 +3820,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>13</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>21</v>
@@ -3853,10 +3853,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>13</v>
@@ -3865,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>21</v>
@@ -3886,10 +3886,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>24</v>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
@@ -3919,10 +3919,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>24</v>
@@ -3931,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>21</v>
@@ -3952,10 +3952,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>24</v>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>21</v>
@@ -3973,13 +3973,13 @@
         <v>21</v>
       </c>
       <c r="I67" s="24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3987,10 +3987,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>24</v>
@@ -4006,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J68" s="16" t="s">
         <v>35</v>
@@ -4020,10 +4020,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>211</v>
+        <v>341</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>24</v>
@@ -4039,7 +4039,7 @@
         <v>35</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>35</v>
@@ -4053,10 +4053,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>24</v>
@@ -4084,10 +4084,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>24</v>
@@ -4096,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>21</v>
@@ -4117,10 +4117,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>24</v>
@@ -4129,7 +4129,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>21</v>
@@ -4150,10 +4150,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>24</v>
@@ -4181,10 +4181,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>24</v>
@@ -4210,10 +4210,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>24</v>
@@ -4222,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>21</v>
@@ -4231,7 +4231,7 @@
         <v>21</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J75" s="24" t="s">
         <v>16</v>
@@ -4245,10 +4245,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>24</v>
@@ -4274,10 +4274,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>24</v>
@@ -4286,7 +4286,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G77" s="34" t="s">
         <v>21</v>
@@ -4295,7 +4295,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>16</v>
@@ -4309,10 +4309,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>24</v>
@@ -4340,10 +4340,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>24</v>
@@ -4352,7 +4352,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G79" s="34" t="s">
         <v>21</v>
@@ -4373,10 +4373,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>24</v>
@@ -4385,7 +4385,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>21</v>
@@ -4406,10 +4406,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>24</v>
@@ -4418,7 +4418,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G81" s="24" t="s">
         <v>21</v>
@@ -4439,10 +4439,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>24</v>
@@ -4451,7 +4451,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>21</v>
@@ -4472,10 +4472,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>24</v>
@@ -4484,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>21</v>
@@ -4505,10 +4505,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>24</v>
@@ -4517,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>21</v>
@@ -4538,10 +4538,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>24</v>
@@ -4550,7 +4550,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G85" s="24" t="s">
         <v>21</v>
@@ -4571,10 +4571,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>24</v>
@@ -4583,7 +4583,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>21</v>
@@ -4604,10 +4604,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>24</v>
@@ -4616,7 +4616,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G87" s="24" t="s">
         <v>21</v>
@@ -4637,10 +4637,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>24</v>
@@ -4649,7 +4649,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>21</v>
@@ -4670,10 +4670,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>24</v>
@@ -4701,10 +4701,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>24</v>
@@ -4732,10 +4732,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>24</v>
@@ -4744,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G91" s="24" t="s">
         <v>21</v>
@@ -4765,10 +4765,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>24</v>
@@ -4777,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G92" s="24" t="s">
         <v>21</v>
@@ -4798,10 +4798,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>24</v>
@@ -4829,10 +4829,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>24</v>
@@ -4860,10 +4860,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>24</v>
@@ -4872,7 +4872,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>21</v>
@@ -4893,10 +4893,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>24</v>
@@ -4905,13 +4905,13 @@
         <v>14</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="24" t="s">
@@ -4926,10 +4926,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>24</v>
@@ -4938,22 +4938,22 @@
         <v>14</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4961,10 +4961,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>24</v>
@@ -4973,22 +4973,22 @@
         <v>14</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4996,10 +4996,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>24</v>
@@ -5008,19 +5008,19 @@
         <v>14</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
@@ -5031,10 +5031,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>24</v>
@@ -5043,22 +5043,22 @@
         <v>14</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I100" s="27" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5066,10 +5066,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>24</v>
@@ -5097,10 +5097,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>24</v>
@@ -5109,22 +5109,22 @@
         <v>14</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5132,10 +5132,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>24</v>
@@ -5144,17 +5144,17 @@
         <v>14</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K103" s="24" t="s">
         <v>17</v>
@@ -5165,10 +5165,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>24</v>
@@ -5177,22 +5177,22 @@
         <v>14</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>24</v>
@@ -5212,22 +5212,22 @@
         <v>14</v>
       </c>
       <c r="F105" s="27" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H105" s="21" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5235,10 +5235,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>24</v>
@@ -5247,22 +5247,22 @@
         <v>14</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5270,10 +5270,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>24</v>
@@ -5282,22 +5282,22 @@
         <v>14</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H107" s="21" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5305,10 +5305,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>24</v>
@@ -5317,19 +5317,19 @@
         <v>14</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
@@ -5340,10 +5340,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D109" s="42" t="s">
         <v>13</v>
@@ -5352,16 +5352,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="J109" s="45" t="s">
         <v>16</v>
@@ -5377,27 +5377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5638,10 +5617,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5664,20 +5675,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79430C4-17CB-42DB-9D2E-7D9D56EDCF21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="351">
   <si>
     <t>index</t>
   </si>
@@ -159,9 +158,6 @@
     <t>dtcigsmk</t>
   </si>
   <si>
-    <t>smoking status with three categories</t>
-  </si>
-  <si>
     <t>TOBACCO_PY</t>
   </si>
   <si>
@@ -781,9 +777,6 @@
   </si>
   <si>
     <t>Total sugar intake [g/d]</t>
-  </si>
-  <si>
-    <t>dkmd</t>
   </si>
   <si>
     <t>ADD_SUGARS</t>
@@ -1125,11 +1118,20 @@
   <si>
     <t>Total fruit intake [g/d]</t>
   </si>
+  <si>
+    <t>dkmosa + dkdisa</t>
+  </si>
+  <si>
+    <t>dkmosa (monosaccharides) + dkdisa (disaccharides)</t>
+  </si>
+  <si>
+    <t>dkmosa; dkdisa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1684,30 +1686,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" customWidth="1"/>
+    <col min="11" max="11" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1746,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -1779,7 +1781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1884,7 +1886,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -1991,7 +1993,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -2026,7 +2028,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2051,9 +2053,7 @@
       <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="I10" s="20"/>
       <c r="J10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2063,33 +2063,33 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
@@ -2100,15 +2100,15 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>24</v>
@@ -2130,29 +2130,29 @@
         <v>35</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>21</v>
@@ -2170,15 +2170,15 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>13</v>
@@ -2205,15 +2205,15 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>13</v>
@@ -2240,15 +2240,15 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>13</v>
@@ -2275,15 +2275,15 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
@@ -2310,15 +2310,15 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -2343,15 +2343,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>24</v>
@@ -2376,24 +2376,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>21</v>
@@ -2409,24 +2409,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>21</v>
@@ -2442,24 +2442,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>21</v>
@@ -2475,24 +2475,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>21</v>
@@ -2508,15 +2508,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>13</v>
@@ -2525,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
@@ -2541,15 +2541,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>13</v>
@@ -2558,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>21</v>
@@ -2574,15 +2574,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
@@ -2591,33 +2591,33 @@
         <v>14</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>13</v>
@@ -2640,15 +2640,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>13</v>
@@ -2657,16 +2657,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>16</v>
@@ -2675,15 +2675,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>13</v>
@@ -2692,16 +2692,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>16</v>
@@ -2710,15 +2710,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>13</v>
@@ -2727,16 +2727,16 @@
         <v>14</v>
       </c>
       <c r="F30" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>16</v>
@@ -2745,15 +2745,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>13</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>35</v>
@@ -2778,15 +2778,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>13</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>35</v>
@@ -2811,15 +2811,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>13</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>35</v>
@@ -2838,21 +2838,21 @@
         <v>36</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>13</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>35</v>
@@ -2877,15 +2877,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>13</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>35</v>
@@ -2910,15 +2910,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>13</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>35</v>
@@ -2943,15 +2943,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>13</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>35</v>
@@ -2976,15 +2976,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>13</v>
@@ -2993,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>21</v>
@@ -3009,15 +3009,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>13</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>35</v>
@@ -3042,15 +3042,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>35</v>
@@ -3075,15 +3075,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>24</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>35</v>
@@ -3108,15 +3108,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>13</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>35</v>
@@ -3141,15 +3141,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>24</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>35</v>
@@ -3174,15 +3174,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>13</v>
@@ -3191,16 +3191,16 @@
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>130</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>16</v>
@@ -3209,33 +3209,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>16</v>
@@ -3244,15 +3244,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>13</v>
@@ -3261,16 +3261,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>16</v>
@@ -3279,33 +3279,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="D47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>16</v>
@@ -3314,15 +3314,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>13</v>
@@ -3331,16 +3331,16 @@
         <v>14</v>
       </c>
       <c r="F48" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>16</v>
@@ -3349,33 +3349,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="D49" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>16</v>
@@ -3384,15 +3384,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>13</v>
@@ -3401,16 +3401,16 @@
         <v>14</v>
       </c>
       <c r="F50" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>16</v>
@@ -3419,33 +3419,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>16</v>
@@ -3454,15 +3454,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>13</v>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>35</v>
@@ -3487,15 +3487,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>24</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>35</v>
@@ -3520,15 +3520,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>13</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>35</v>
@@ -3553,15 +3553,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>24</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>35</v>
@@ -3586,15 +3586,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>13</v>
@@ -3603,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>21</v>
@@ -3619,33 +3619,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>16</v>
@@ -3654,15 +3654,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>13</v>
@@ -3685,15 +3685,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>13</v>
@@ -3716,15 +3716,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>24</v>
@@ -3747,15 +3747,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>13</v>
@@ -3764,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>21</v>
@@ -3780,33 +3780,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="G62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="22" t="s">
         <v>182</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>16</v>
@@ -3815,15 +3815,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>13</v>
@@ -3832,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>21</v>
@@ -3848,15 +3848,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>13</v>
@@ -3865,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>21</v>
@@ -3881,16 +3881,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="D65" s="16" t="s">
         <v>24</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
@@ -3914,24 +3914,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>21</v>
@@ -3947,50 +3947,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="24">
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="21" t="s">
+      <c r="G67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="24" t="s">
+      <c r="J67" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="K67" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="K67" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>24</v>
@@ -4006,7 +4006,7 @@
         <v>35</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J68" s="16" t="s">
         <v>35</v>
@@ -4015,15 +4015,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>24</v>
@@ -4039,7 +4039,7 @@
         <v>35</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>35</v>
@@ -4048,15 +4048,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>24</v>
@@ -4079,24 +4079,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>206</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>21</v>
@@ -4112,24 +4112,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>209</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>21</v>
@@ -4145,15 +4145,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>24</v>
@@ -4176,16 +4176,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="D74" s="16" t="s">
         <v>24</v>
       </c>
@@ -4205,33 +4205,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="24">
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="D75" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="33" t="s">
+      <c r="G75" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="J75" s="24" t="s">
         <v>16</v>
@@ -4240,15 +4240,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>24</v>
@@ -4269,25 +4269,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="24">
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>220</v>
-      </c>
       <c r="G77" s="34" t="s">
         <v>21</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>16</v>
@@ -4304,15 +4304,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>77</v>
       </c>
       <c r="B78" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="s">
         <v>221</v>
-      </c>
-      <c r="C78" t="s">
-        <v>222</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>24</v>
@@ -4335,24 +4335,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>225</v>
       </c>
       <c r="G79" s="34" t="s">
         <v>21</v>
@@ -4368,24 +4368,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>228</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>21</v>
@@ -4401,24 +4401,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="G81" s="24" t="s">
         <v>21</v>
@@ -4434,24 +4434,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>21</v>
@@ -4467,24 +4467,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>21</v>
@@ -4500,24 +4500,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>21</v>
@@ -4533,24 +4533,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="G85" s="24" t="s">
         <v>21</v>
@@ -4566,24 +4566,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="G86" s="24" t="s">
         <v>21</v>
@@ -4599,24 +4599,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="G87" s="24" t="s">
         <v>21</v>
@@ -4632,48 +4632,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>251</v>
-      </c>
       <c r="D88" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="21" t="s">
-        <v>252</v>
+      <c r="F88" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>24</v>
@@ -4696,15 +4698,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>24</v>
@@ -4727,24 +4729,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="G91" s="24" t="s">
         <v>21</v>
@@ -4760,24 +4762,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="G92" s="24" t="s">
         <v>21</v>
@@ -4793,15 +4795,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>24</v>
@@ -4824,15 +4826,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>24</v>
@@ -4855,24 +4857,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="G95" s="24" t="s">
         <v>21</v>
@@ -4888,30 +4890,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="G96" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="H96" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>273</v>
       </c>
       <c r="I96" s="24"/>
       <c r="J96" s="24" t="s">
@@ -4921,155 +4923,155 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="G97" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H97" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="26" t="s">
+      <c r="I97" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G97" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H97" s="26" t="s">
+      <c r="J97" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="I97" s="26" t="s">
+      <c r="K97" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="J97" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="I98" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="G98" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="I98" s="27" t="s">
-        <v>284</v>
-      </c>
       <c r="J98" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I99" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>287</v>
-      </c>
       <c r="J99" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H100" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="17" t="s">
+      <c r="I100" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="G100" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="I100" s="27" t="s">
-        <v>291</v>
-      </c>
       <c r="J100" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>24</v>
@@ -5092,258 +5094,258 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="G102" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H102" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="27" t="s">
+      <c r="I102" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="G102" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>298</v>
-      </c>
       <c r="J102" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K103" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="27" t="s">
+      <c r="I104" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="G104" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="I104" s="27" t="s">
-        <v>305</v>
-      </c>
       <c r="J104" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="G105" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="D105" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="27" t="s">
+      <c r="I105" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="G105" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="J105" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="G106" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H106" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="27" t="s">
+      <c r="I106" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G106" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="I106" s="27" t="s">
-        <v>315</v>
-      </c>
       <c r="J106" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="G107" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H107" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="17" t="s">
+      <c r="I107" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G107" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H107" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="I107" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="J107" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="G108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="16" t="s">
+      <c r="I108" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>325</v>
-      </c>
       <c r="J108" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="42">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D109" s="42" t="s">
         <v>13</v>
@@ -5352,16 +5354,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J109" s="45" t="s">
         <v>16</v>
@@ -5618,6 +5620,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5627,15 +5638,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5658,6 +5660,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5672,12 +5682,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1119,13 +1119,13 @@
     <t>Total fruit intake [g/d]</t>
   </si>
   <si>
-    <t>dkmosa + dkdisa</t>
-  </si>
-  <si>
-    <t>dkmosa (monosaccharides) + dkdisa (disaccharides)</t>
-  </si>
-  <si>
-    <t>dkmosa; dkdisa</t>
+    <t>dmosa (monosaccharides) + ddisa (disaccharides)</t>
+  </si>
+  <si>
+    <t>dmosa + ddisa</t>
+  </si>
+  <si>
+    <t>dmosa; ddisa</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4655,10 +4655,10 @@
         <v>270</v>
       </c>
       <c r="H88" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I88" s="24" t="s">
         <v>348</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>349</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>277</v>
@@ -5379,6 +5379,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5619,28 +5640,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5657,29 +5682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1119,13 +1119,13 @@
     <t>Total fruit intake [g/d]</t>
   </si>
   <si>
-    <t>dmosa (monosaccharides) + ddisa (disaccharides)</t>
-  </si>
-  <si>
     <t>dmosa + ddisa</t>
   </si>
   <si>
-    <t>dmosa; ddisa</t>
+    <t>dkmosa; dkdisa</t>
+  </si>
+  <si>
+    <t>dkmosa (monosaccharides) + dkdisa (disaccharides)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4649,16 +4649,16 @@
         <v>14</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>270</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>277</v>
@@ -5379,27 +5379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5640,32 +5619,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5682,4 +5657,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1119,13 +1119,13 @@
     <t>Total fruit intake [g/d]</t>
   </si>
   <si>
-    <t>dmosa + ddisa</t>
-  </si>
-  <si>
     <t>dkmosa; dkdisa</t>
   </si>
   <si>
     <t>dkmosa (monosaccharides) + dkdisa (disaccharides)</t>
+  </si>
+  <si>
+    <t>dkmosa + dkdisa</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4649,16 +4649,16 @@
         <v>14</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>270</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>277</v>
@@ -5379,6 +5379,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5619,28 +5640,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5657,29 +5682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrar\Documents\Perrar\NFDI4Health\TA5_1\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE8836-ABBA-4A62-A44E-72089AED486F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="9340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="352">
   <si>
     <t>index</t>
   </si>
@@ -95,9 +96,6 @@
     <t>AGE_BASE</t>
   </si>
   <si>
-    <t>Age at exposure measure</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -140,15 +138,9 @@
     <t>TOT_PA_QX</t>
   </si>
   <si>
-    <t>Physical activity from questionnaire data</t>
-  </si>
-  <si>
     <t>TOT_PA_AC</t>
   </si>
   <si>
-    <t>Physical activity from accelerometry data</t>
-  </si>
-  <si>
     <t>SMOKE_ST</t>
   </si>
   <si>
@@ -161,9 +153,6 @@
     <t>TOBACCO_PY</t>
   </si>
   <si>
-    <t>Cumulative lifetime tobacco exposure</t>
-  </si>
-  <si>
     <t>dtpyrs</t>
   </si>
   <si>
@@ -173,18 +162,12 @@
     <t>TOBACCO_D</t>
   </si>
   <si>
-    <t>Amount of daily tobacco smoked</t>
-  </si>
-  <si>
     <t>incompatible</t>
   </si>
   <si>
     <t>AGE_SMOKE_QUIT</t>
   </si>
   <si>
-    <t>Age at time of quitting smoking</t>
-  </si>
-  <si>
     <t>dtstsalt</t>
   </si>
   <si>
@@ -212,48 +195,30 @@
     <t>LIVE_BIRTHS</t>
   </si>
   <si>
-    <t>Number of live births given</t>
-  </si>
-  <si>
     <t>AGE_FIRST_BIRTH</t>
   </si>
   <si>
-    <t>Age at the first given birth</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
-    <t>Triglycerides measured from blood samples</t>
-  </si>
-  <si>
     <t>dl_trin</t>
   </si>
   <si>
     <t>CHOL</t>
   </si>
   <si>
-    <t>Total cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>dl_choln</t>
   </si>
   <si>
     <t>LDL</t>
   </si>
   <si>
-    <t>LDL cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>dl_ldln</t>
   </si>
   <si>
     <t>HDL</t>
   </si>
   <si>
-    <t>HDL cholesterol measured from blood samples</t>
-  </si>
-  <si>
     <t>dl_hdln</t>
   </si>
   <si>
@@ -389,9 +354,6 @@
     <t>AGE_CVD</t>
   </si>
   <si>
-    <t>Age at diagnosis of CVD</t>
-  </si>
-  <si>
     <t>INC_ANGINA</t>
   </si>
   <si>
@@ -401,9 +363,6 @@
     <t>AGE_ANGINA</t>
   </si>
   <si>
-    <t>Age at diagnosis of angina pectoris</t>
-  </si>
-  <si>
     <t>INC_MI</t>
   </si>
   <si>
@@ -419,9 +378,6 @@
     <t>AGE_MI</t>
   </si>
   <si>
-    <t>Age at diagnosis of myocardial infarction</t>
-  </si>
-  <si>
     <t>mi_alter_16</t>
   </si>
   <si>
@@ -443,9 +399,6 @@
     <t>AGE_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of stroke</t>
-  </si>
-  <si>
     <t>apo_alter_16</t>
   </si>
   <si>
@@ -467,9 +420,6 @@
     <t>AGE_ISC_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of cerebral infarction (ischaemic stroke)</t>
-  </si>
-  <si>
     <t>age at end of follow-up for ischaemic stroke</t>
   </si>
   <si>
@@ -488,9 +438,6 @@
     <t>AGE_HAEMO_STR</t>
   </si>
   <si>
-    <t>Age at diagnosis of haemorrhagic stroke</t>
-  </si>
-  <si>
     <t>age at end of follow-up for haemorrhagic stroke</t>
   </si>
   <si>
@@ -503,9 +450,6 @@
     <t>AGE_HYP</t>
   </si>
   <si>
-    <t>Age at diagnosis of essential hypertension</t>
-  </si>
-  <si>
     <t>INC_HF</t>
   </si>
   <si>
@@ -515,9 +459,6 @@
     <t>AGE_HF</t>
   </si>
   <si>
-    <t>Age at diagnosis of heart failure</t>
-  </si>
-  <si>
     <t>INC_DIAB2</t>
   </si>
   <si>
@@ -530,9 +471,6 @@
     <t>AGE_DIAB2</t>
   </si>
   <si>
-    <t>Age at diagnosis of diabetes mellitus type 2</t>
-  </si>
-  <si>
     <t>dm_alter_16</t>
   </si>
   <si>
@@ -551,9 +489,6 @@
     <t>AGE_CANCER</t>
   </si>
   <si>
-    <t>Age at diagnosis of cancer</t>
-  </si>
-  <si>
     <t>VITAL_ST</t>
   </si>
   <si>
@@ -566,9 +501,6 @@
     <t>AGE_DEATH</t>
   </si>
   <si>
-    <t>Age at time of death</t>
-  </si>
-  <si>
     <t>t_alter_16</t>
   </si>
   <si>
@@ -596,9 +528,6 @@
     <t>AGE_FUP</t>
   </si>
   <si>
-    <t>Age at end of follow-up</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -632,45 +561,27 @@
     <t>WAIST_FUP</t>
   </si>
   <si>
-    <t>Waist circumference at follow-up</t>
-  </si>
-  <si>
     <t>WAIST</t>
   </si>
   <si>
-    <t>Waist circumference at baseline</t>
-  </si>
-  <si>
     <t>dttumf</t>
   </si>
   <si>
     <t>HIP</t>
   </si>
   <si>
-    <t>Hip circumference at baseline</t>
-  </si>
-  <si>
     <t>dthumf</t>
   </si>
   <si>
     <t>HIP_FUP</t>
   </si>
   <si>
-    <t>Hip circumference at follow-up</t>
-  </si>
-  <si>
     <t>FMI_FUP</t>
   </si>
   <si>
-    <t>Fat mass index at follow-up</t>
-  </si>
-  <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Fat mass index at baseline</t>
-  </si>
-  <si>
     <t>DTBFMI_K</t>
   </si>
   <si>
@@ -687,9 +598,6 @@
   </si>
   <si>
     <t>AGE_ANTH_FUP</t>
-  </si>
-  <si>
-    <t>Age at anthropometric measurement at follow-up</t>
   </si>
   <si>
     <t>ENERGY</t>
@@ -930,9 +838,6 @@
   </si>
   <si>
     <t xml:space="preserve">DV491 </t>
-  </si>
-  <si>
-    <t>DV491</t>
   </si>
   <si>
     <t>FRUITS_TOT_04</t>
@@ -1041,9 +946,6 @@
     <t>DV850</t>
   </si>
   <si>
-    <t xml:space="preserve">DV850 </t>
-  </si>
-  <si>
     <t>DV850 (tea)</t>
   </si>
   <si>
@@ -1065,9 +967,6 @@
     <t>5 (7_d_FR_w)</t>
   </si>
   <si>
-    <t>Use of contraceptive pills or injections</t>
-  </si>
-  <si>
     <t>History of diabetes</t>
   </si>
   <si>
@@ -1080,27 +979,12 @@
     <t>Screening cervical, smear test</t>
   </si>
   <si>
-    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18)</t>
-  </si>
-  <si>
-    <t>Body Mass Index at baseline</t>
-  </si>
-  <si>
-    <t>Body Mass Index at follow-up</t>
-  </si>
-  <si>
     <t>Body Mass Index Standard Deviation Score at baseline (children studies)</t>
   </si>
   <si>
     <t>Body Mass Index Standard Deviation Score at follow-up (children studies)</t>
   </si>
   <si>
-    <t>Body fat precent at follow-up</t>
-  </si>
-  <si>
-    <t>Body fat precent at baseline</t>
-  </si>
-  <si>
     <t>Daily glycaemic load</t>
   </si>
   <si>
@@ -1126,12 +1010,132 @@
   </si>
   <si>
     <t>dkmosa + dkdisa</t>
+  </si>
+  <si>
+    <t>Age at exposure measure [years]</t>
+  </si>
+  <si>
+    <t>Physical activity from questionnaire data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Physical activity from accelerometry data [MET-hr/day]</t>
+  </si>
+  <si>
+    <t>Cumulative lifetime tobacco exposure  [pack years]</t>
+  </si>
+  <si>
+    <t>Amount of daily tobacco smoked [g/day]</t>
+  </si>
+  <si>
+    <t>Age at time of quitting smoking [years]</t>
+  </si>
+  <si>
+    <t>Use of contraceptive pills or injections [years]</t>
+  </si>
+  <si>
+    <t>Number of live births given [Nr. of birth]</t>
+  </si>
+  <si>
+    <t>Age at the first given birth [years]</t>
+  </si>
+  <si>
+    <t>Triglycerides measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Total cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>LDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>HDL cholesterol measured from blood samples [mmol/L]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of CVD [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of angina pectoris [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of myocardial infarction [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cerebral infarction (ischaemic stroke) [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of haemorrhagic stroke [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of essential hypertension [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of heart failure [years]</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of diabetes mellitus type 2 [years]</t>
+  </si>
+  <si>
+    <t>Type of Cancer (ICD 10, 3 digits,e.g. C18.3)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Age at diagnosis of cancer [years]</t>
+  </si>
+  <si>
+    <t>Age at time of death [years]</t>
+  </si>
+  <si>
+    <t>Age at end of follow-up [years]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at baseline [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body Mass Index at follow-up [kg/m²]</t>
+  </si>
+  <si>
+    <t>Waist circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Waist circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at baseline [cm]</t>
+  </si>
+  <si>
+    <t>Hip circumference at follow-up [cm]</t>
+  </si>
+  <si>
+    <t>Fat mass index at follow-up  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Fat mass index at baseline  [kg/m²]</t>
+  </si>
+  <si>
+    <t>Body fat precent at follow-up [%]</t>
+  </si>
+  <si>
+    <t>Body fat precent at baseline  [%]</t>
+  </si>
+  <si>
+    <t>Age at anthropometric measurement at follow-up [years]</t>
+  </si>
+  <si>
+    <t>DV491*2</t>
+  </si>
+  <si>
+    <t>double the amount of DV491 (dry legumes) to be comparable to other studies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1300,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1342,9 +1346,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1370,9 +1371,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1407,9 +1405,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1686,30 +1685,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.08984375" customWidth="1"/>
-    <col min="10" max="10" width="20.6328125" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1746,24 +1745,24 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -1781,17 +1780,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1816,24 +1815,24 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>21</v>
@@ -1851,24 +1850,24 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>21</v>
@@ -1886,33 +1885,33 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="40" t="s">
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>16</v>
@@ -1923,17 +1922,17 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1941,111 +1940,111 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>21</v>
@@ -2053,7 +2052,7 @@
       <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2063,24 +2062,24 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>46</v>
+      <c r="F11" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>21</v>
@@ -2088,8 +2087,8 @@
       <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>47</v>
+      <c r="I11" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
@@ -2100,64 +2099,64 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>53</v>
+      <c r="F13" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="14"/>
@@ -2170,17 +2169,17 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2188,34 +2187,34 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2223,34 +2222,34 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2258,34 +2257,34 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2293,244 +2292,244 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>24</v>
+      <c r="B19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>24</v>
+      <c r="B20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>24</v>
+      <c r="B21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>24</v>
+      <c r="B23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="D24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>78</v>
+      <c r="F24" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="14"/>
@@ -2541,29 +2540,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>81</v>
+      <c r="F25" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="14"/>
@@ -2574,52 +2573,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="40" t="s">
-        <v>84</v>
+      <c r="F26" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2627,12 +2626,12 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="I27" s="21"/>
       <c r="J27" s="14" t="s">
         <v>16</v>
       </c>
@@ -2640,33 +2639,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>91</v>
+      <c r="F28" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>92</v>
+      <c r="H28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>16</v>
@@ -2675,33 +2674,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="40" t="s">
-        <v>95</v>
+      <c r="F29" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>96</v>
+      <c r="H29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>16</v>
@@ -2710,33 +2709,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>99</v>
+      <c r="F30" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>100</v>
+      <c r="H30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>16</v>
@@ -2745,17 +2744,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2763,32 +2762,32 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2796,32 +2795,32 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2829,32 +2828,32 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -2862,32 +2861,32 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -2895,32 +2894,32 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -2928,32 +2927,32 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="D37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>300</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2961,47 +2960,47 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>115</v>
+      <c r="F38" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="21"/>
+      <c r="H38" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="20"/>
       <c r="J38" s="14" t="s">
         <v>16</v>
       </c>
@@ -3009,17 +3008,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -3027,32 +3026,32 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3060,65 +3059,65 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>24</v>
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3126,81 +3125,81 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>24</v>
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>129</v>
+      <c r="H44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>16</v>
@@ -3209,33 +3208,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>133</v>
+      <c r="H45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>16</v>
@@ -3244,33 +3243,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>137</v>
+      <c r="H46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>16</v>
@@ -3279,33 +3278,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>24</v>
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>141</v>
+      <c r="H47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>16</v>
@@ -3314,33 +3313,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="41" t="s">
-        <v>144</v>
+      <c r="F48" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>16</v>
@@ -3349,33 +3348,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>24</v>
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>148</v>
+      <c r="H49" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>16</v>
@@ -3384,33 +3383,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="41" t="s">
-        <v>151</v>
+      <c r="F50" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="21" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>16</v>
@@ -3419,33 +3418,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>24</v>
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>155</v>
+      <c r="H51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>16</v>
@@ -3454,17 +3453,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -3472,65 +3471,65 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>24</v>
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -3538,77 +3537,77 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="16"/>
@@ -3619,33 +3618,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>24</v>
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>170</v>
+      <c r="H57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>16</v>
@@ -3654,17 +3653,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -3672,107 +3671,107 @@
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" t="s">
         <v>335</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>24</v>
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="22"/>
+      <c r="H61" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="21"/>
       <c r="J61" s="14" t="s">
         <v>16</v>
       </c>
@@ -3780,33 +3779,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>24</v>
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H62" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>182</v>
+      <c r="H62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>16</v>
@@ -3815,24 +3814,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>21</v>
@@ -3840,7 +3839,7 @@
       <c r="H63" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="22"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="14" t="s">
         <v>16</v>
       </c>
@@ -3848,32 +3847,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="22"/>
+      <c r="H64" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="21"/>
       <c r="J64" s="14" t="s">
         <v>16</v>
       </c>
@@ -3881,24 +3880,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>24</v>
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
@@ -3906,7 +3905,7 @@
       <c r="H65" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="22"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="14" t="s">
         <v>16</v>
       </c>
@@ -3914,24 +3913,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>24</v>
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="31" t="s">
-        <v>192</v>
+      <c r="F66" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>21</v>
@@ -3947,24 +3946,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="24">
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>24</v>
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>194</v>
+      <c r="F67" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>21</v>
@@ -3972,1403 +3971,1405 @@
       <c r="H67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="24" t="s">
-        <v>195</v>
+      <c r="I67" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>24</v>
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>24</v>
+        <v>176</v>
+      </c>
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>24</v>
+        <v>177</v>
+      </c>
+      <c r="C70" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>24</v>
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24" t="s">
+      <c r="F71" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="24" t="s">
+      <c r="K71" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24" t="s">
+      <c r="F72" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="24" t="s">
+      <c r="K72" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>24</v>
+        <v>182</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="35"/>
+      <c r="F73" s="33"/>
       <c r="G73" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>24</v>
+        <v>183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="J75" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K75" s="24" t="s">
+      <c r="K75" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>24</v>
+        <v>187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="J77" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K77" s="24" t="s">
+      <c r="K77" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>220</v>
+      <c r="B78" s="34" t="s">
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>24</v>
+        <v>349</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="33"/>
-      <c r="G78" s="38" t="s">
-        <v>35</v>
+      <c r="F78" s="31"/>
+      <c r="G78" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>24</v>
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24" t="s">
+      <c r="F79" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K79" s="24" t="s">
+      <c r="K79" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>24</v>
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24" t="s">
+      <c r="F80" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K80" s="24" t="s">
+      <c r="K80" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>24</v>
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24" t="s">
+      <c r="F81" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K81" s="24" t="s">
+      <c r="K81" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24" t="s">
+      <c r="F82" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="24" t="s">
+      <c r="K82" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>24</v>
+        <v>203</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24" t="s">
+      <c r="F83" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="24" t="s">
+      <c r="K83" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>24</v>
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24" t="s">
+      <c r="F84" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K84" s="24" t="s">
+      <c r="K84" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>24</v>
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24" t="s">
+      <c r="F85" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K85" s="24" t="s">
+      <c r="K85" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>24</v>
+        <v>212</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24" t="s">
+      <c r="F86" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K86" s="24" t="s">
+      <c r="K86" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>24</v>
+        <v>215</v>
+      </c>
+      <c r="C87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G87" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24" t="s">
+      <c r="F87" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K87" s="24" t="s">
+      <c r="K87" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="G88" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H88" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>349</v>
+      <c r="F88" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>24</v>
+        <v>220</v>
+      </c>
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="C90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>24</v>
+        <v>224</v>
+      </c>
+      <c r="C91" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24" t="s">
+      <c r="F91" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="24" t="s">
+      <c r="K91" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>24</v>
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K92" s="24" t="s">
+      <c r="K92" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>24</v>
+        <v>230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>24</v>
+        <v>232</v>
+      </c>
+      <c r="C94" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>24</v>
+        <v>233</v>
+      </c>
+      <c r="C95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K95" s="24" t="s">
+      <c r="K95" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>24</v>
+        <v>236</v>
+      </c>
+      <c r="C96" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K96" s="24" t="s">
+      <c r="K96" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>24</v>
+        <v>241</v>
+      </c>
+      <c r="C97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="I97" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="J97" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="K97" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="F97" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I97" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J97" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K97" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>24</v>
+        <v>248</v>
+      </c>
+      <c r="C98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="I98" s="27" t="s">
-        <v>282</v>
+        <v>249</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>251</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>24</v>
+        <v>252</v>
+      </c>
+      <c r="C99" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>24</v>
+        <v>255</v>
+      </c>
+      <c r="C100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="I100" s="27" t="s">
-        <v>289</v>
+        <v>256</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>24</v>
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>24</v>
+        <v>261</v>
+      </c>
+      <c r="C102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H102" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="I102" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J102" s="24" t="s">
-        <v>277</v>
+      <c r="F102" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="I102" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>24</v>
+        <v>266</v>
+      </c>
+      <c r="C103" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="K103" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="F103" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I103" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>24</v>
+        <v>268</v>
+      </c>
+      <c r="C104" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="G104" s="24" t="s">
+      <c r="F104" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="H104" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="I104" s="27" t="s">
-        <v>303</v>
+      <c r="I104" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>24</v>
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H105" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="I105" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="J105" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="K105" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F105" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>24</v>
+        <v>277</v>
+      </c>
+      <c r="C106" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="I106" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="J106" s="24" t="s">
-        <v>277</v>
+      <c r="F106" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I106" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>24</v>
+        <v>282</v>
+      </c>
+      <c r="C107" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H107" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="I107" s="21" t="s">
-        <v>318</v>
+        <v>284</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>24</v>
+        <v>287</v>
+      </c>
+      <c r="C108" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G108" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="42">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
-      </c>
-      <c r="D109" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="44" t="s">
-        <v>327</v>
+      <c r="E109" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>294</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
-      <c r="I109" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="J109" s="45" t="s">
+      <c r="I109" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J109" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K109" s="45" t="s">
+      <c r="K109" s="43" t="s">
         <v>17</v>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE8836-ABBA-4A62-A44E-72089AED486F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E00D8A-8862-4958-B9C3-CD756CFF04C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="353">
   <si>
     <t>index</t>
   </si>
@@ -729,16 +729,10 @@
     <t>SODIUM</t>
   </si>
   <si>
-    <t>Sodium intake [g/d]</t>
-  </si>
-  <si>
     <t>dnatr</t>
   </si>
   <si>
     <t>SOD_POT_RATIO</t>
-  </si>
-  <si>
-    <t>Sodium to potassium intake ratio [g/d]</t>
   </si>
   <si>
     <t>dnatr; dkal</t>
@@ -1130,6 +1124,15 @@
   </si>
   <si>
     <t>double the amount of DV491 (dry legumes) to be comparable to other studies</t>
+  </si>
+  <si>
+    <t>Sodium intake [mg/d]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium to potassium intake ratio </t>
+  </si>
+  <si>
+    <t>dnatr*1000</t>
   </si>
 </sst>
 </file>
@@ -1688,9 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -1823,7 +1826,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1965,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2000,7 +2003,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -2070,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -2107,7 +2110,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -2142,7 +2145,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -2282,7 +2285,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2317,7 +2320,7 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2350,7 +2353,7 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2383,7 +2386,7 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -2416,7 +2419,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2449,7 +2452,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2482,7 +2485,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2515,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2884,7 +2887,7 @@
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2917,7 +2920,7 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2950,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -3082,7 +3085,7 @@
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3148,7 +3151,7 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3216,7 +3219,7 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -3286,7 +3289,7 @@
         <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -3356,7 +3359,7 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -3426,7 +3429,7 @@
         <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -3494,7 +3497,7 @@
         <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3560,7 +3563,7 @@
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3626,7 +3629,7 @@
         <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -3692,10 +3695,10 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>14</v>
@@ -3723,7 +3726,7 @@
         <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3787,7 +3790,7 @@
         <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -3888,7 +3891,7 @@
         <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3921,7 +3924,7 @@
         <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -3954,7 +3957,7 @@
         <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -3989,7 +3992,7 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4022,7 +4025,7 @@
         <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4055,7 +4058,7 @@
         <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4086,7 +4089,7 @@
         <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4119,7 +4122,7 @@
         <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4152,7 +4155,7 @@
         <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4183,7 +4186,7 @@
         <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4212,7 +4215,7 @@
         <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -4247,7 +4250,7 @@
         <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4276,7 +4279,7 @@
         <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4311,7 +4314,7 @@
         <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4648,22 +4651,22 @@
         <v>14</v>
       </c>
       <c r="F88" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G88" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>311</v>
-      </c>
       <c r="I88" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4833,7 +4836,7 @@
         <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -4864,29 +4867,29 @@
         <v>233</v>
       </c>
       <c r="C95" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>235</v>
-      </c>
       <c r="G95" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>21</v>
+        <v>237</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="I95" s="23"/>
       <c r="J95" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4894,25 +4897,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C96" t="s">
+      <c r="G96" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="H96" s="23" t="s">
         <v>238</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="s">
@@ -4927,34 +4930,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H97" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="I97" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="G97" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H97" s="25" t="s">
+      <c r="J97" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="K97" s="23" t="s">
         <v>245</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="K97" s="23" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4962,34 +4965,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C98" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H98" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="I98" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G98" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I98" s="26" t="s">
-        <v>251</v>
-      </c>
       <c r="J98" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4997,31 +5000,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>254</v>
-      </c>
       <c r="J99" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
@@ -5032,34 +5035,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="17" t="s">
+      <c r="I100" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="G100" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>258</v>
-      </c>
       <c r="J100" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5067,10 +5070,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5098,31 +5101,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H102" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="I102" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="I102" s="25" t="s">
-        <v>265</v>
-      </c>
       <c r="J102" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K102" s="17" t="s">
         <v>74</v>
@@ -5133,10 +5136,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5145,22 +5148,22 @@
         <v>14</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5168,34 +5171,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C104" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="I104" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>271</v>
-      </c>
       <c r="J104" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5203,34 +5206,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C105" t="s">
+      <c r="G105" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H105" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="I105" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G105" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="J105" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5238,34 +5241,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C106" t="s">
+      <c r="G106" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="I106" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="I106" s="26" t="s">
-        <v>281</v>
-      </c>
       <c r="J106" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5273,34 +5276,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C107" t="s">
+      <c r="G107" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H107" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="17" t="s">
+      <c r="I107" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>286</v>
-      </c>
       <c r="J107" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5308,31 +5311,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" t="s">
+        <v>286</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C108" t="s">
+      <c r="G108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>290</v>
-      </c>
       <c r="J108" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
@@ -5343,10 +5346,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5355,16 +5358,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>
@@ -5380,6 +5383,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5389,15 +5401,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5642,6 +5645,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5654,14 +5665,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E00D8A-8862-4958-B9C3-CD756CFF04C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEED190-1F4B-412C-99DE-AF746A886870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="356">
   <si>
     <t>index</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <t>dtbbild</t>
   </si>
   <si>
     <t>EMPLOY</t>
@@ -1134,12 +1131,35 @@
   <si>
     <t>dnatr*1000</t>
   </si>
+  <si>
+    <t>DI13ABSC; DI14ABSC</t>
+  </si>
+  <si>
+    <t>case_when</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>case_when(
+  DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
+  DI14ABSC %in% c(3,4) ~ 6L,
+  DI14ABSC %in% c(2) ~ 4L,
+  DI14ABSC %in% c(5) ~ 9L,
+  DI13ABSC %in% c(3) ~ 3L,
+  DI13ABSC %in% c(1,2) ~ 2L,
+  DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
+  is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
+  DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
+  DI13ABSC %in% c(5) ~ 9L,
+  TRUE ~ NA_integer_)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1216,12 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1307,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,9 +1435,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1692,11 +1723,11 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -1765,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -1826,7 +1857,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1853,7 +1884,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1869,21 +1900,21 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>17</v>
+      <c r="F5" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1893,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1905,16 +1936,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>16</v>
@@ -1930,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1943,19 +1974,19 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1965,10 +1996,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1978,19 +2009,19 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2000,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -2013,19 +2044,19 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2035,10 +2066,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2047,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>21</v>
@@ -2070,28 +2101,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
@@ -2107,10 +2138,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -2120,19 +2151,19 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2142,19 +2173,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>21</v>
@@ -2177,10 +2208,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2190,19 +2221,19 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2212,10 +2243,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2225,19 +2256,19 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2247,10 +2278,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2260,19 +2291,19 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2282,10 +2313,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2295,19 +2326,19 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2317,10 +2348,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2330,19 +2361,19 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2350,10 +2381,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2363,19 +2394,19 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,19 +2414,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>21</v>
@@ -2416,19 +2447,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>21</v>
@@ -2449,19 +2480,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>21</v>
@@ -2482,19 +2513,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>21</v>
@@ -2515,10 +2546,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2527,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
@@ -2548,10 +2579,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2560,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>21</v>
@@ -2581,10 +2612,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2593,22 +2624,22 @@
         <v>14</v>
       </c>
       <c r="F26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2616,10 +2647,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2629,10 +2660,10 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="14" t="s">
@@ -2647,10 +2678,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2659,16 +2690,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>16</v>
@@ -2682,10 +2713,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2694,16 +2725,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>16</v>
@@ -2717,10 +2748,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2729,16 +2760,16 @@
         <v>14</v>
       </c>
       <c r="F30" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>88</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>16</v>
@@ -2752,10 +2783,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2765,19 +2796,19 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2785,10 +2816,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2798,19 +2829,19 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2818,10 +2849,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2831,19 +2862,19 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,10 +2882,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
         <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2864,19 +2895,19 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2884,10 +2915,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2897,19 +2928,19 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,10 +2948,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2930,19 +2961,19 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2950,10 +2981,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2963,19 +2994,19 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2983,10 +3014,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2995,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>21</v>
@@ -3016,10 +3047,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
         <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3029,19 +3060,19 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3049,10 +3080,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3062,19 +3093,19 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3082,10 +3113,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3095,19 +3126,19 @@
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3115,10 +3146,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3128,19 +3159,19 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,10 +3179,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3161,19 +3192,19 @@
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,10 +3212,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3193,16 +3224,16 @@
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>16</v>
@@ -3216,28 +3247,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C45" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>16</v>
@@ -3251,10 +3282,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
         <v>119</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3263,16 +3294,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>16</v>
@@ -3286,28 +3317,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C47" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>16</v>
@@ -3321,10 +3352,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
         <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3333,16 +3364,16 @@
         <v>14</v>
       </c>
       <c r="F48" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>16</v>
@@ -3356,28 +3387,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" t="s">
-        <v>327</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>16</v>
@@ -3391,10 +3422,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
         <v>132</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3403,16 +3434,16 @@
         <v>14</v>
       </c>
       <c r="F50" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>16</v>
@@ -3426,28 +3457,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" t="s">
-        <v>328</v>
-      </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>16</v>
@@ -3461,10 +3492,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
         <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3474,19 +3505,19 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3494,10 +3525,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3507,19 +3538,19 @@
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3527,10 +3558,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3540,19 +3571,19 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,10 +3591,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3573,19 +3604,19 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,10 +3624,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
         <v>144</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3605,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>21</v>
@@ -3626,28 +3657,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>149</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>16</v>
@@ -3661,10 +3692,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3674,17 +3705,17 @@
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3692,30 +3723,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
+        <v>331</v>
+      </c>
+      <c r="D59" t="s">
         <v>332</v>
-      </c>
-      <c r="D59" t="s">
-        <v>333</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3723,10 +3754,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3736,17 +3767,17 @@
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3754,10 +3785,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
         <v>154</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3766,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>21</v>
@@ -3787,28 +3818,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C62" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="G62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>16</v>
@@ -3822,10 +3853,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
         <v>160</v>
-      </c>
-      <c r="C63" t="s">
-        <v>161</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3834,7 +3865,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>21</v>
@@ -3855,10 +3886,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
         <v>163</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3867,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>21</v>
@@ -3888,10 +3919,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3900,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
@@ -3921,19 +3952,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="C66" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>168</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>21</v>
@@ -3954,34 +3985,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C67" t="s">
-        <v>338</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="20" t="s">
+      <c r="G67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="23" t="s">
+      <c r="J67" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="K67" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3989,10 +4020,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4002,19 +4033,19 @@
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4022,10 +4053,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4035,19 +4066,19 @@
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4055,10 +4086,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4068,17 +4099,17 @@
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4086,19 +4117,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="C71" t="s">
-        <v>340</v>
-      </c>
-      <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>21</v>
@@ -4119,19 +4150,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>340</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="C72" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>21</v>
@@ -4152,10 +4183,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4165,17 +4196,17 @@
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4183,10 +4214,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4195,16 +4226,16 @@
         <v>14</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,28 +4243,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C75" t="s">
-        <v>344</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="31" t="s">
+      <c r="G75" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>16</v>
@@ -4247,10 +4278,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4259,16 +4290,16 @@
         <v>14</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4276,20 +4307,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
+        <v>345</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C77" t="s">
-        <v>346</v>
-      </c>
-      <c r="D77" t="s">
-        <v>23</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>189</v>
-      </c>
       <c r="G77" s="32" t="s">
         <v>21</v>
       </c>
@@ -4297,7 +4328,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J77" s="23" t="s">
         <v>16</v>
@@ -4311,10 +4342,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4324,17 +4355,17 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4342,19 +4373,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" t="s">
         <v>191</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="35" t="s">
         <v>192</v>
-      </c>
-      <c r="D79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>193</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>21</v>
@@ -4375,19 +4406,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" t="s">
         <v>194</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="30" t="s">
         <v>195</v>
-      </c>
-      <c r="D80" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>21</v>
@@ -4408,19 +4439,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="D81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>21</v>
@@ -4441,19 +4472,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
         <v>200</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>201</v>
-      </c>
-      <c r="D82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>21</v>
@@ -4474,19 +4505,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
         <v>203</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>205</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>21</v>
@@ -4507,19 +4538,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" t="s">
         <v>206</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>207</v>
-      </c>
-      <c r="D84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>208</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>21</v>
@@ -4540,19 +4571,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" t="s">
         <v>209</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="20" t="s">
         <v>210</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>211</v>
       </c>
       <c r="G85" s="23" t="s">
         <v>21</v>
@@ -4573,19 +4604,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" t="s">
         <v>212</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>21</v>
@@ -4606,19 +4637,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" t="s">
         <v>215</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="20" t="s">
         <v>216</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>217</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>21</v>
@@ -4639,11 +4670,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s">
         <v>218</v>
       </c>
-      <c r="C88" t="s">
-        <v>219</v>
-      </c>
       <c r="D88" t="s">
         <v>23</v>
       </c>
@@ -4651,22 +4682,22 @@
         <v>14</v>
       </c>
       <c r="F88" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I88" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G88" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="I88" s="23" t="s">
-        <v>308</v>
-      </c>
       <c r="J88" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K88" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K88" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4674,10 +4705,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
         <v>220</v>
-      </c>
-      <c r="C89" t="s">
-        <v>221</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4687,17 +4718,17 @@
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4705,10 +4736,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" t="s">
         <v>222</v>
-      </c>
-      <c r="C90" t="s">
-        <v>223</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4718,17 +4749,17 @@
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4736,19 +4767,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" t="s">
         <v>224</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="D91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>226</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>21</v>
@@ -4769,19 +4800,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" t="s">
         <v>227</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="D92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="G92" s="23" t="s">
         <v>21</v>
@@ -4802,10 +4833,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" t="s">
         <v>230</v>
-      </c>
-      <c r="C93" t="s">
-        <v>231</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4815,17 +4846,17 @@
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4833,10 +4864,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -4846,17 +4877,17 @@
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4864,32 +4895,32 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" t="s">
+        <v>349</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C95" t="s">
-        <v>350</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="G95" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I95" s="23"/>
       <c r="J95" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4897,25 +4928,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" t="s">
+        <v>350</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C96" t="s">
-        <v>351</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="G96" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="H96" s="23" t="s">
         <v>237</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>238</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="s">
@@ -4930,34 +4961,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
         <v>239</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="G97" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H97" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="G97" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H97" s="25" t="s">
+      <c r="I97" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="J97" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="J97" s="23" t="s">
+      <c r="K97" s="23" t="s">
         <v>244</v>
-      </c>
-      <c r="K97" s="23" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4965,34 +4996,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C98" t="s">
-        <v>302</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="G98" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H98" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="G98" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H98" s="26" t="s">
+      <c r="I98" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="I98" s="26" t="s">
-        <v>249</v>
-      </c>
       <c r="J98" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K98" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K98" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5000,31 +5031,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C99" t="s">
-        <v>303</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="16" t="s">
+      <c r="G99" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>252</v>
-      </c>
       <c r="J99" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
@@ -5035,34 +5066,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C100" t="s">
-        <v>304</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="17" t="s">
+      <c r="G100" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="G100" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H100" s="26" t="s">
+      <c r="I100" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="I100" s="26" t="s">
-        <v>256</v>
-      </c>
       <c r="J100" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K100" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K100" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5070,10 +5101,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" t="s">
         <v>257</v>
-      </c>
-      <c r="C101" t="s">
-        <v>258</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5083,17 +5114,17 @@
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -5101,34 +5132,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
         <v>259</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="G102" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H102" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H102" s="25" t="s">
+      <c r="I102" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="I102" s="25" t="s">
-        <v>263</v>
-      </c>
       <c r="J102" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5136,34 +5167,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C103" t="s">
-        <v>305</v>
-      </c>
-      <c r="D103" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>265</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H103" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I103" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="I103" s="44" t="s">
-        <v>349</v>
-      </c>
       <c r="J103" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5171,34 +5202,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C104" t="s">
-        <v>306</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="G104" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H104" s="26" t="s">
+      <c r="I104" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="I104" s="26" t="s">
-        <v>269</v>
-      </c>
       <c r="J104" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K104" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K104" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5206,34 +5237,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" t="s">
         <v>270</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="G105" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H105" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="G105" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H105" s="20" t="s">
+      <c r="I105" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="I105" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="J105" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K105" s="23" t="s">
         <v>244</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5241,34 +5272,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" t="s">
         <v>275</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="D106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="G106" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H106" s="26" t="s">
+      <c r="I106" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="I106" s="26" t="s">
-        <v>279</v>
-      </c>
       <c r="J106" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K106" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5276,34 +5307,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" t="s">
         <v>280</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="17" t="s">
+      <c r="G107" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H107" s="20" t="s">
+      <c r="I107" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="I107" s="20" t="s">
-        <v>284</v>
-      </c>
       <c r="J107" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K107" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="K107" s="17" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5311,31 +5342,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C108" t="s">
         <v>285</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="16" t="s">
+      <c r="G108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>288</v>
-      </c>
       <c r="J108" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
@@ -5346,10 +5377,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" t="s">
         <v>290</v>
-      </c>
-      <c r="C109" t="s">
-        <v>291</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5358,16 +5389,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>

--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEED190-1F4B-412C-99DE-AF746A886870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0969C-2802-47CF-8218-2207F751B2F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,13 +1145,12 @@
   DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
   DI14ABSC %in% c(3,4) ~ 6L,
   DI14ABSC %in% c(2) ~ 4L,
-  DI14ABSC %in% c(5) ~ 9L,
   DI13ABSC %in% c(3) ~ 3L,
   DI13ABSC %in% c(1,2) ~ 2L,
   DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
   is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
   DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
-  DI13ABSC %in% c(5) ~ 9L,
+  DI14ABSC %in% c(5) | DI13ABSC %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
   </si>
 </sst>
@@ -5414,27 +5413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -5675,10 +5653,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5701,20 +5711,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05EDAC75-43D1-4B55-97A0-34C880419949}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_KORA_S3_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0969C-2802-47CF-8218-2207F751B2F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F3FBE-AF19-4404-9C98-8A145A308D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="355">
   <si>
     <t>index</t>
   </si>
@@ -105,9 +105,6 @@
     <t>EDU_LEVEL</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>EMPLOY</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
   </si>
   <si>
     <t>proximate</t>
-  </si>
-  <si>
-    <t>tentative</t>
   </si>
   <si>
     <t>BMI_SDS</t>
@@ -1132,26 +1126,29 @@
     <t>dnatr*1000</t>
   </si>
   <si>
-    <t>DI13ABSC; DI14ABSC</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
     <t>partial</t>
   </si>
   <si>
+    <t>di13absc; di14absc</t>
+  </si>
+  <si>
     <t>case_when(
-  DI13ABSC %in% c(4) | DI14ABSC %in% c(0) ~ 7L,
-  DI14ABSC %in% c(3,4) ~ 6L,
-  DI14ABSC %in% c(2) ~ 4L,
-  DI13ABSC %in% c(3) ~ 3L,
-  DI13ABSC %in% c(1,2) ~ 2L,
-  DI13ABSC %in% c(6) &amp; DI14ABSC %in% c(1) ~ 0L,
-  is.na(DI13ABSC) &amp; DI14ABSC %in% c(1) ~ 0L,
-  DI13ABSC %in% c(6) &amp; is.na(DI14ABSC) ~ 0L,
-  DI14ABSC %in% c(5) | DI13ABSC %in% c(5) ~ 9L,
+  di13absc %in% c(4) | di14absc %in% c(0) ~ 7L,
+  di14absc %in% c(3,4) ~ 6L,
+  di14absc %in% c(2) ~ 4L,
+  di13absc %in% c(3) ~ 3L,
+  di13absc %in% c(1,2) ~ 2L,
+  di13absc %in% c(6) &amp; di14absc %in% c(1) ~ 0L,
+  is.na(di13absc) &amp; di14absc %in% c(1) ~ 0L,
+  di13absc %in% c(6) &amp; is.na(di14absc) ~ 0L,
+  di14absc %in% c(5) | di13absc %in% c(5) ~ 9L,
   TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>Highest level of education [ISCED 2011]</t>
   </si>
 </sst>
 </file>
@@ -1721,9 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>15</v>
@@ -1856,7 +1853,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1890,8 +1887,8 @@
       <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
+      <c r="C5" s="41" t="s">
+        <v>354</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1903,17 +1900,17 @@
         <v>352</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>353</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>355</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1923,10 +1920,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1935,16 +1932,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>16</v>
@@ -1960,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1973,19 +1970,19 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1995,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2008,19 +2005,19 @@
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2030,10 +2027,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -2043,19 +2040,19 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2065,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2077,7 +2074,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>21</v>
@@ -2100,28 +2097,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>16</v>
@@ -2137,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -2150,19 +2147,19 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2172,19 +2169,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>21</v>
@@ -2207,10 +2204,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2220,19 +2217,19 @@
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2242,10 +2239,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -2255,19 +2252,19 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2277,10 +2274,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2290,19 +2287,19 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2312,10 +2309,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2325,19 +2322,19 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2347,10 +2344,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2360,19 +2357,19 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,10 +2377,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -2393,19 +2390,19 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,19 +2410,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>21</v>
@@ -2446,19 +2443,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>319</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>21</v>
@@ -2479,19 +2476,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>21</v>
@@ -2512,19 +2509,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>21</v>
@@ -2545,10 +2542,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2557,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>21</v>
@@ -2578,10 +2575,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2590,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>21</v>
@@ -2611,10 +2608,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2623,22 +2620,22 @@
         <v>14</v>
       </c>
       <c r="F26" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2646,10 +2643,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2659,10 +2656,10 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="14" t="s">
@@ -2677,10 +2674,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2689,16 +2686,16 @@
         <v>14</v>
       </c>
       <c r="F28" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>16</v>
@@ -2712,10 +2709,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2724,16 +2721,16 @@
         <v>14</v>
       </c>
       <c r="F29" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>16</v>
@@ -2747,10 +2744,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2759,16 +2756,16 @@
         <v>14</v>
       </c>
       <c r="F30" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>16</v>
@@ -2782,10 +2779,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2795,19 +2792,19 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2815,10 +2812,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2828,19 +2825,19 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2848,10 +2845,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2861,19 +2858,19 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2894,19 +2891,19 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2914,10 +2911,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2927,19 +2924,19 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2947,10 +2944,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2960,19 +2957,19 @@
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2980,10 +2977,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2993,19 +2990,19 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3013,10 +3010,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -3025,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>21</v>
@@ -3046,10 +3043,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -3059,19 +3056,19 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3079,10 +3076,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -3092,19 +3089,19 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3112,10 +3109,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3125,19 +3122,19 @@
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3145,10 +3142,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
         <v>108</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3158,19 +3155,19 @@
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3178,10 +3175,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -3191,19 +3188,19 @@
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3211,10 +3208,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -3223,16 +3220,16 @@
         <v>14</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>16</v>
@@ -3246,28 +3243,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="G45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>16</v>
@@ -3281,10 +3278,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -3293,16 +3290,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>16</v>
@@ -3316,28 +3313,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
-        <v>325</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="16" t="s">
+      <c r="G47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>16</v>
@@ -3351,10 +3348,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3363,16 +3360,16 @@
         <v>14</v>
       </c>
       <c r="F48" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>16</v>
@@ -3386,28 +3383,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>326</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>130</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>16</v>
@@ -3421,10 +3418,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
         <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3433,16 +3430,16 @@
         <v>14</v>
       </c>
       <c r="F50" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>16</v>
@@ -3456,28 +3453,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" t="s">
-        <v>327</v>
-      </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>16</v>
@@ -3491,10 +3488,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" t="s">
-        <v>138</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3504,19 +3501,19 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3524,10 +3521,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -3537,19 +3534,19 @@
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3557,10 +3554,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" t="s">
-        <v>141</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3570,19 +3567,19 @@
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3590,10 +3587,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -3603,19 +3600,19 @@
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3623,10 +3620,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
         <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3635,7 +3632,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>21</v>
@@ -3656,28 +3653,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C57" t="s">
-        <v>330</v>
-      </c>
-      <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="G57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>16</v>
@@ -3691,10 +3688,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
         <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3704,17 +3701,17 @@
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3722,30 +3719,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3753,10 +3750,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -3766,17 +3763,17 @@
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3784,10 +3781,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3796,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>21</v>
@@ -3817,28 +3814,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>332</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C62" t="s">
-        <v>334</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="G62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>16</v>
@@ -3852,10 +3849,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
         <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3864,7 +3861,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>21</v>
@@ -3885,10 +3882,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
         <v>162</v>
-      </c>
-      <c r="C64" t="s">
-        <v>163</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3897,7 +3894,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>21</v>
@@ -3918,10 +3915,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
@@ -3930,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>21</v>
@@ -3951,19 +3948,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>167</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>21</v>
@@ -3984,34 +3981,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C67" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="20" t="s">
+      <c r="G67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="23" t="s">
+      <c r="J67" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="K67" s="18" t="s">
         <v>170</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4019,10 +4016,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -4032,19 +4029,19 @@
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4052,10 +4049,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -4065,19 +4062,19 @@
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4085,10 +4082,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -4098,17 +4095,17 @@
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4116,10 +4113,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -4128,7 +4125,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>21</v>
@@ -4149,10 +4146,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -4161,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>21</v>
@@ -4182,10 +4179,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -4195,17 +4192,17 @@
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4213,10 +4210,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -4225,16 +4222,16 @@
         <v>14</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4242,28 +4239,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>343</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>185</v>
       </c>
       <c r="J75" s="23" t="s">
         <v>16</v>
@@ -4277,10 +4274,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -4289,16 +4286,16 @@
         <v>14</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4306,10 +4303,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -4318,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>21</v>
@@ -4327,7 +4324,7 @@
         <v>21</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J77" s="23" t="s">
         <v>16</v>
@@ -4341,10 +4338,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -4354,17 +4351,17 @@
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4372,19 +4369,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="C79" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>21</v>
@@ -4405,19 +4402,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="30" t="s">
         <v>193</v>
-      </c>
-      <c r="C80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>195</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>21</v>
@@ -4438,19 +4435,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="C81" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>198</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>21</v>
@@ -4471,19 +4468,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>21</v>
@@ -4504,19 +4501,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="C83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>204</v>
       </c>
       <c r="G83" s="23" t="s">
         <v>21</v>
@@ -4537,19 +4534,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="20" t="s">
         <v>205</v>
-      </c>
-      <c r="C84" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>21</v>
@@ -4570,19 +4567,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="C85" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>210</v>
       </c>
       <c r="G85" s="23" t="s">
         <v>21</v>
@@ -4603,19 +4600,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="C86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="G86" s="23" t="s">
         <v>21</v>
@@ -4636,19 +4633,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="C87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>216</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>21</v>
@@ -4669,10 +4666,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -4681,22 +4678,22 @@
         <v>14</v>
       </c>
       <c r="F88" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H88" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="G88" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>308</v>
-      </c>
       <c r="I88" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4704,10 +4701,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -4717,17 +4714,17 @@
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4735,10 +4732,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -4748,17 +4745,17 @@
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4766,19 +4763,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="C91" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>225</v>
       </c>
       <c r="G91" s="23" t="s">
         <v>21</v>
@@ -4799,19 +4796,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="C92" t="s">
-        <v>227</v>
-      </c>
-      <c r="D92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="G92" s="23" t="s">
         <v>21</v>
@@ -4832,10 +4829,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -4845,17 +4842,17 @@
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4863,10 +4860,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -4876,17 +4873,17 @@
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4894,32 +4891,32 @@
         <v>94</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H95" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="I95" s="23"/>
       <c r="J95" s="23" t="s">
         <v>16</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4927,25 +4924,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C96" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="H96" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="s">
@@ -4960,34 +4957,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C97" t="s">
+      <c r="G97" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H97" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="25" t="s">
+      <c r="I97" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="G97" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H97" s="25" t="s">
+      <c r="J97" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="I97" s="25" t="s">
+      <c r="K97" s="23" t="s">
         <v>242</v>
-      </c>
-      <c r="J97" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="K97" s="23" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4995,34 +4992,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H98" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C98" t="s">
-        <v>301</v>
-      </c>
-      <c r="D98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="I98" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="G98" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="I98" s="26" t="s">
-        <v>248</v>
-      </c>
       <c r="J98" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5030,31 +5027,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C99" t="s">
-        <v>302</v>
-      </c>
-      <c r="D99" t="s">
-        <v>23</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="J99" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K99" s="17" t="s">
         <v>17</v>
@@ -5065,34 +5062,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C100" t="s">
-        <v>303</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="17" t="s">
+      <c r="I100" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="G100" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="I100" s="26" t="s">
-        <v>255</v>
-      </c>
       <c r="J100" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K100" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5100,10 +5097,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D101" t="s">
         <v>23</v>
@@ -5113,17 +5110,17 @@
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K101" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -5131,34 +5128,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C102" t="s">
+      <c r="G102" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H102" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D102" t="s">
-        <v>23</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="26" t="s">
+      <c r="I102" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="I102" s="25" t="s">
-        <v>262</v>
-      </c>
       <c r="J102" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5166,10 +5163,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
@@ -5178,22 +5175,22 @@
         <v>14</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="3" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -5201,34 +5198,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H104" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C104" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="26" t="s">
+      <c r="I104" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H104" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="I104" s="26" t="s">
-        <v>268</v>
-      </c>
       <c r="J104" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5236,34 +5233,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C105" t="s">
+      <c r="G105" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H105" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D105" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="26" t="s">
+      <c r="I105" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="G105" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>273</v>
-      </c>
       <c r="J105" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5271,34 +5268,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C106" t="s">
+      <c r="G106" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H106" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="26" t="s">
+      <c r="I106" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H106" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="I106" s="26" t="s">
-        <v>278</v>
-      </c>
       <c r="J106" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5306,34 +5303,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C107" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C107" t="s">
+      <c r="G107" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H107" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="D107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" s="17" t="s">
+      <c r="I107" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="J107" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5341,31 +5338,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C108" t="s">
+      <c r="G108" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D108" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>287</v>
-      </c>
       <c r="J108" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K108" s="17" t="s">
         <v>17</v>
@@ -5376,10 +5373,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5388,16 +5385,16 @@
         <v>14</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H109">
         <v>5</v>
       </c>
       <c r="I109" s="40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J109" s="43" t="s">
         <v>16</v>
@@ -5654,6 +5651,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5663,15 +5669,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5694,6 +5691,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFED9ACA-827C-4B16-98B6-54E8085DB47D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5708,12 +5713,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E0444-0B0C-4DF9-8194-BB08BDB29ECB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>